--- a/twoSets/to_string.xlsx
+++ b/twoSets/to_string.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26505"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junhui Li\Desktop\GEO\twoSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9C84AA49-08D4-42A4-8BB6-9955C5A23B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC7D4E-BD84-47EE-9C9A-2EE74D7945F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3951" yWindow="3737" windowWidth="17520" windowHeight="7003"/>
+    <workbookView xWindow="3780" yWindow="4560" windowWidth="17631" windowHeight="11871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to_string" sheetId="1" r:id="rId1"/>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2278,6122 +2278,6122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A247"/>
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>358</v>
       </c>
       <c r="B1">
-        <v>-0.70496184333756895</v>
+        <v>0.96831424038477898</v>
       </c>
       <c r="C1">
-        <v>0.64377478052599302</v>
+        <v>-0.49260749531514297</v>
       </c>
       <c r="D1">
-        <v>0.948474793136867</v>
+        <v>-0.72527436330296602</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>357</v>
       </c>
       <c r="B2">
-        <v>-0.77100842113438395</v>
+        <v>0.96341587133941897</v>
       </c>
       <c r="C2">
-        <v>0.62774843703722205</v>
+        <v>-0.50350977481260195</v>
       </c>
       <c r="D2">
-        <v>0.943594490993521</v>
+        <v>-0.71800116973152295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>356</v>
       </c>
       <c r="B3">
-        <v>-0.73926047096765701</v>
+        <v>0.95901491962232299</v>
       </c>
       <c r="C3">
-        <v>0.511682044025217</v>
+        <v>-0.47104096835268999</v>
       </c>
       <c r="D3">
-        <v>0.93490745018211596</v>
+        <v>-0.722424574624144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="B4">
-        <v>-0.71536121947211395</v>
+        <v>0.95689173356720603</v>
       </c>
       <c r="C4">
-        <v>0.54953552094484404</v>
+        <v>-0.49576835255023</v>
       </c>
       <c r="D4">
-        <v>0.93440266232472402</v>
+        <v>-0.71256577932165699</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="B5">
-        <v>-0.67233279764225895</v>
+        <v>0.95604759068866796</v>
       </c>
       <c r="C5">
-        <v>0.54165273958624405</v>
+        <v>-0.50265367292142904</v>
       </c>
       <c r="D5">
-        <v>0.93335076740676504</v>
+        <v>-0.75703772750201903</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="B6">
-        <v>-0.70027813922540705</v>
+        <v>0.95596032333342296</v>
       </c>
       <c r="C6">
-        <v>0.52992563168317397</v>
+        <v>-0.55521497635818595</v>
       </c>
       <c r="D6">
-        <v>0.92756235806253795</v>
+        <v>-0.82079072136369102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="B7">
-        <v>-0.84758014796792802</v>
+        <v>0.95224994891360004</v>
       </c>
       <c r="C7">
-        <v>0.63084688039446102</v>
+        <v>-0.514025299913762</v>
       </c>
       <c r="D7">
-        <v>0.92702237384194497</v>
+        <v>-0.75366147036570896</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="B8">
-        <v>-0.79272223035004596</v>
+        <v>0.95159343547478004</v>
       </c>
       <c r="C8">
-        <v>0.56114150079893899</v>
+        <v>-0.52006398865845005</v>
       </c>
       <c r="D8">
-        <v>0.92328686873162102</v>
+        <v>-0.75599462034803799</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="B9">
-        <v>-0.751292132110702</v>
+        <v>0.94973663654815499</v>
       </c>
       <c r="C9">
-        <v>0.50066371646728103</v>
+        <v>-0.58045784007896695</v>
       </c>
       <c r="D9">
-        <v>0.92123101937118801</v>
+        <v>-0.83021514267494501</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="B10">
-        <v>-0.71081278253458102</v>
+        <v>0.94690846417243701</v>
       </c>
       <c r="C10">
-        <v>0.61649202725406604</v>
+        <v>-0.492846540285236</v>
       </c>
       <c r="D10">
-        <v>0.91622571315773205</v>
+        <v>-0.75076776207042295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="B11">
-        <v>-0.70884520951697705</v>
+        <v>0.946167817897274</v>
       </c>
       <c r="C11">
-        <v>0.53689925625222201</v>
+        <v>-0.58789274211321896</v>
       </c>
       <c r="D11">
-        <v>0.91488003087276804</v>
+        <v>-0.75232031603123695</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="B12">
-        <v>-0.75377967153953596</v>
+        <v>0.94521914367448401</v>
       </c>
       <c r="C12">
-        <v>0.69574753935290501</v>
+        <v>-0.58059720979776896</v>
       </c>
       <c r="D12">
-        <v>0.91181169799815698</v>
+        <v>-0.84575504251077005</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="B13">
-        <v>-0.84525991785942201</v>
+        <v>0.94502221426143895</v>
       </c>
       <c r="C13">
-        <v>0.72608682847654504</v>
+        <v>-0.453622209171202</v>
       </c>
       <c r="D13">
-        <v>0.908875457103406</v>
+        <v>-0.66828257911086797</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>316</v>
       </c>
       <c r="B14">
-        <v>-0.71115874492414499</v>
+        <v>0.94487709897788896</v>
       </c>
       <c r="C14">
-        <v>0.484021832449686</v>
+        <v>-0.54720090409579203</v>
       </c>
       <c r="D14">
-        <v>0.908028844339687</v>
+        <v>-0.82086349610828901</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="B15">
-        <v>-0.72004699731725197</v>
+        <v>0.93605653232875896</v>
       </c>
       <c r="C15">
-        <v>0.42449756889816698</v>
+        <v>-0.44281273475129301</v>
       </c>
       <c r="D15">
-        <v>0.90208827702627203</v>
+        <v>-0.62740203102868497</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>365</v>
       </c>
       <c r="B16">
-        <v>-0.70067771027632797</v>
+        <v>0.93435935111110002</v>
       </c>
       <c r="C16">
-        <v>0.49013669448466601</v>
+        <v>-0.405394717639254</v>
       </c>
       <c r="D16">
-        <v>0.90128259022288004</v>
+        <v>-0.68464520490660796</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="B17">
-        <v>-0.69939055766142</v>
+        <v>0.93265432596240805</v>
       </c>
       <c r="C17">
-        <v>0.45656908195481199</v>
+        <v>-0.51428329021841901</v>
       </c>
       <c r="D17">
-        <v>0.90031858441254198</v>
+        <v>-0.77826266375691</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="B18">
-        <v>-0.73543957671433302</v>
+        <v>0.93080421113485501</v>
       </c>
       <c r="C18">
-        <v>0.48675223811421597</v>
+        <v>-0.41481739602842699</v>
       </c>
       <c r="D18">
-        <v>0.89964095153013102</v>
+        <v>-0.640856193358045</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="B19">
-        <v>-0.74145279526194996</v>
+        <v>0.926828041437191</v>
       </c>
       <c r="C19">
-        <v>0.54985719574143299</v>
+        <v>-0.585634206179935</v>
       </c>
       <c r="D19">
-        <v>0.89818348046037699</v>
+        <v>-0.77285181890707499</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="B20">
-        <v>-0.65873888804958003</v>
+        <v>0.926565680481231</v>
       </c>
       <c r="C20">
-        <v>0.74221853979148</v>
+        <v>-0.49752290982053499</v>
       </c>
       <c r="D20">
-        <v>0.89792582157335499</v>
+        <v>-0.71865936667327102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="B21">
-        <v>-0.79278644428817002</v>
+        <v>0.92573388155393399</v>
       </c>
       <c r="C21">
-        <v>0.73376830418024797</v>
+        <v>-0.42600768113918402</v>
       </c>
       <c r="D21">
-        <v>0.89605962982379495</v>
+        <v>-0.76855907344569696</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="B22">
-        <v>-0.765343473601656</v>
+        <v>0.91916527485595101</v>
       </c>
       <c r="C22">
-        <v>0.45001109026171998</v>
+        <v>-0.559354048023049</v>
       </c>
       <c r="D22">
-        <v>0.89077631208654195</v>
+        <v>-0.79521685871853898</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>402</v>
       </c>
       <c r="B23">
-        <v>-0.715084663630285</v>
+        <v>0.91892676913669002</v>
       </c>
       <c r="C23">
-        <v>0.57986292427381203</v>
+        <v>-0.43031748329917702</v>
       </c>
       <c r="D23">
-        <v>0.889594786640312</v>
+        <v>-0.60430695734588702</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="B24">
-        <v>-0.78364874325360501</v>
+        <v>0.91788761669178898</v>
       </c>
       <c r="C24">
-        <v>0.46960604566492098</v>
+        <v>-0.55460380027483003</v>
       </c>
       <c r="D24">
-        <v>0.88824780163626305</v>
+        <v>-0.77866026201357597</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="B25">
-        <v>-0.74188017106556503</v>
+        <v>0.91601965640459804</v>
       </c>
       <c r="C25">
-        <v>0.47719731672512899</v>
+        <v>-0.52409797846917305</v>
       </c>
       <c r="D25">
-        <v>0.88806031557680598</v>
+        <v>-0.81911121045840296</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="B26">
-        <v>-0.74057692669034703</v>
+        <v>0.91532354031046104</v>
       </c>
       <c r="C26">
-        <v>0.47216776056679299</v>
+        <v>-0.52497234504315604</v>
       </c>
       <c r="D26">
-        <v>0.88762562190054595</v>
+        <v>-0.81189363414438798</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="B27">
-        <v>-0.64718759359463696</v>
+        <v>0.91308194203942605</v>
       </c>
       <c r="C27">
-        <v>0.59388507753311304</v>
+        <v>-0.33786896576116399</v>
       </c>
       <c r="D27">
-        <v>0.88737360631115503</v>
+        <v>-0.694585809912177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="B28">
-        <v>-0.67802391049560695</v>
+        <v>0.91292302884332999</v>
       </c>
       <c r="C28">
-        <v>0.43609561442942901</v>
+        <v>-0.55043943849189203</v>
       </c>
       <c r="D28">
-        <v>0.88533601442934096</v>
+        <v>-0.79431841963948602</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="B29">
-        <v>-0.80950883669526597</v>
+        <v>0.91124857049403896</v>
       </c>
       <c r="C29">
-        <v>0.46181565991432599</v>
+        <v>-0.37102287848161702</v>
       </c>
       <c r="D29">
-        <v>0.88346212898993703</v>
+        <v>-0.72794737018116895</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="B30">
-        <v>-0.78302634895681</v>
+        <v>0.91071604017471597</v>
       </c>
       <c r="C30">
-        <v>0.75407216182553505</v>
+        <v>-0.66907821450562199</v>
       </c>
       <c r="D30">
-        <v>0.88055413988412301</v>
+        <v>-0.85982703477361699</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="B31">
-        <v>-0.67441557433289601</v>
+        <v>0.90604885896287901</v>
       </c>
       <c r="C31">
-        <v>0.47813139841651497</v>
+        <v>-0.52735051684744305</v>
       </c>
       <c r="D31">
-        <v>0.88046050050304003</v>
+        <v>-0.86144432574007701</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>334</v>
       </c>
       <c r="B32">
-        <v>-0.73773243893438201</v>
+        <v>0.90385849811113095</v>
       </c>
       <c r="C32">
-        <v>0.45018710721324201</v>
+        <v>-0.42547946293165001</v>
       </c>
       <c r="D32">
-        <v>0.87931963701819005</v>
+        <v>-0.67901528327674499</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="B33">
-        <v>-0.78515190683922398</v>
+        <v>0.902132776497933</v>
       </c>
       <c r="C33">
-        <v>0.75137688141414505</v>
+        <v>-0.34233601179113998</v>
       </c>
       <c r="D33">
-        <v>0.87902026362417096</v>
+        <v>-0.71422615813515</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="B34">
-        <v>-0.63893813099373697</v>
+        <v>0.89855940264410805</v>
       </c>
       <c r="C34">
-        <v>0.52279374531849598</v>
+        <v>-0.54188230867308895</v>
       </c>
       <c r="D34">
-        <v>0.87862032503572096</v>
+        <v>-0.82818529401260799</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>410</v>
       </c>
       <c r="B35">
-        <v>-0.76383064961185498</v>
+        <v>0.89817111778544001</v>
       </c>
       <c r="C35">
-        <v>0.48337797409231098</v>
+        <v>-0.41303502810819398</v>
       </c>
       <c r="D35">
-        <v>0.87811731741865895</v>
+        <v>-0.57727249451108598</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="B36">
-        <v>-0.78651779044468995</v>
+        <v>0.89473218069624805</v>
       </c>
       <c r="C36">
-        <v>0.519831215735993</v>
+        <v>-0.53569732512476997</v>
       </c>
       <c r="D36">
-        <v>0.87810941824065203</v>
+        <v>-0.79209270243595897</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>385</v>
       </c>
       <c r="B37">
-        <v>-0.74716515484375901</v>
+        <v>0.89463769321643205</v>
       </c>
       <c r="C37">
-        <v>0.72146450889985003</v>
+        <v>-0.38082562766723799</v>
       </c>
       <c r="D37">
-        <v>0.87802002320857298</v>
+        <v>-0.61347609034170703</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="B38">
-        <v>-0.79939977834194298</v>
+        <v>0.89367656259837203</v>
       </c>
       <c r="C38">
-        <v>0.47193365272340598</v>
+        <v>-0.47734589565651597</v>
       </c>
       <c r="D38">
-        <v>0.87785332168153296</v>
+        <v>-0.83568817702557596</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="B39">
-        <v>-0.68993295105829799</v>
+        <v>0.89188991464259704</v>
       </c>
       <c r="C39">
-        <v>0.42424605134419802</v>
+        <v>-0.29351541068356901</v>
       </c>
       <c r="D39">
-        <v>0.87674080357259998</v>
+        <v>-0.61325351760745805</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="B40">
-        <v>-0.75306602238244602</v>
+        <v>0.89104376261286899</v>
       </c>
       <c r="C40">
-        <v>0.55076995696172804</v>
+        <v>-0.44154150401349401</v>
       </c>
       <c r="D40">
-        <v>0.875275722598848</v>
+        <v>-0.63819667917388201</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>403</v>
       </c>
       <c r="B41">
-        <v>-0.74327957006213496</v>
+        <v>0.88735785183194005</v>
       </c>
       <c r="C41">
-        <v>0.62884806254044301</v>
+        <v>-0.38569776405136302</v>
       </c>
       <c r="D41">
-        <v>0.87378998220460602</v>
+        <v>-0.56604978675317796</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>415</v>
       </c>
       <c r="B42">
-        <v>-0.78410230440027395</v>
+        <v>0.88655992347745405</v>
       </c>
       <c r="C42">
-        <v>0.58085779531508397</v>
+        <v>-0.36918869515920899</v>
       </c>
       <c r="D42">
-        <v>0.87220377216156697</v>
+        <v>-0.54748841004835702</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="B43">
-        <v>-0.63027177788246502</v>
+        <v>0.88503698061677405</v>
       </c>
       <c r="C43">
-        <v>0.46408484077774897</v>
+        <v>-0.47404865785738898</v>
       </c>
       <c r="D43">
-        <v>0.87177954102127497</v>
+        <v>-0.75180320159326097</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="B44">
-        <v>-0.62558404194141504</v>
+        <v>0.883914729397411</v>
       </c>
       <c r="C44">
-        <v>0.68584742669103205</v>
+        <v>-0.56034987288988702</v>
       </c>
       <c r="D44">
-        <v>0.87138181849045404</v>
+        <v>-0.69906203337022998</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="B45">
-        <v>-0.62274662029769801</v>
+        <v>0.88369877526346596</v>
       </c>
       <c r="C45">
-        <v>0.454738655835417</v>
+        <v>-0.36352537128937701</v>
       </c>
       <c r="D45">
-        <v>0.87070327852569096</v>
+        <v>-0.59980002020277501</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="B46">
-        <v>-0.71680844251652698</v>
+        <v>0.88170405970314902</v>
       </c>
       <c r="C46">
-        <v>0.58736555496375198</v>
+        <v>-0.422043689545334</v>
       </c>
       <c r="D46">
-        <v>0.87070010031459999</v>
+        <v>-0.62139798972955995</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="B47">
-        <v>-0.82813225545857605</v>
+        <v>0.8791448031322</v>
       </c>
       <c r="C47">
-        <v>0.53852801816181906</v>
+        <v>-0.59500970957014199</v>
       </c>
       <c r="D47">
-        <v>0.87041301668630799</v>
+        <v>-0.837440161028148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="B48">
-        <v>-0.59645892737122197</v>
+        <v>0.87872042808719497</v>
       </c>
       <c r="C48">
-        <v>0.48368622001642703</v>
+        <v>-0.44500169262371098</v>
       </c>
       <c r="D48">
-        <v>0.87019318054490402</v>
+        <v>-0.63435990489223704</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>419</v>
       </c>
       <c r="B49">
-        <v>-0.569465473883768</v>
+        <v>0.87860732584332801</v>
       </c>
       <c r="C49">
-        <v>0.67733698162501998</v>
+        <v>-0.37296816238209102</v>
       </c>
       <c r="D49">
-        <v>0.86921749798816195</v>
+        <v>-0.53691926101935905</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>418</v>
       </c>
       <c r="B50">
-        <v>-0.77918909484417598</v>
+        <v>0.87759126320978698</v>
       </c>
       <c r="C50">
-        <v>0.48148143345170502</v>
+        <v>-0.38046168583059797</v>
       </c>
       <c r="D50">
-        <v>0.86755677924893604</v>
+        <v>-0.53655760867942104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B51">
-        <v>-0.69912265631278703</v>
+        <v>0.87631614643787703</v>
       </c>
       <c r="C51">
-        <v>0.49520730090119702</v>
+        <v>-0.59015066410029504</v>
       </c>
       <c r="D51">
-        <v>0.86684273563367897</v>
+        <v>-0.75797992845856799</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="B52">
-        <v>-0.82911774708979602</v>
+        <v>0.87275201531726099</v>
       </c>
       <c r="C52">
-        <v>0.71826534938133102</v>
+        <v>-0.51073830517167196</v>
       </c>
       <c r="D52">
-        <v>0.86507662103304594</v>
+        <v>-0.76620027902643095</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="B53">
-        <v>-0.72908285580333398</v>
+        <v>0.87121548070527</v>
       </c>
       <c r="C53">
-        <v>0.68650852857968103</v>
+        <v>-0.34736537953316898</v>
       </c>
       <c r="D53">
-        <v>0.86099396440816001</v>
+        <v>-0.75351348016871</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="B54">
-        <v>-0.63461733823728805</v>
+        <v>0.86986703233928298</v>
       </c>
       <c r="C54">
-        <v>0.44748333880040603</v>
+        <v>-0.50837959755682305</v>
       </c>
       <c r="D54">
-        <v>0.86077588899006796</v>
+        <v>-0.67081456363436698</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="B55">
-        <v>-0.67536834376294697</v>
+        <v>0.869627262904349</v>
       </c>
       <c r="C55">
-        <v>0.38542672713081999</v>
+        <v>-0.414185514039211</v>
       </c>
       <c r="D55">
-        <v>0.85965759325077096</v>
+        <v>-0.724128158237067</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="B56">
-        <v>-0.69412865947858005</v>
+        <v>0.86891794833305103</v>
       </c>
       <c r="C56">
-        <v>0.699638262949971</v>
+        <v>-0.63956733713097602</v>
       </c>
       <c r="D56">
-        <v>0.85801223820111505</v>
+        <v>-0.76073897170895</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="B57">
-        <v>-0.630587478349385</v>
+        <v>0.86741952139604805</v>
       </c>
       <c r="C57">
-        <v>0.46951718124752001</v>
+        <v>-0.55174338529233602</v>
       </c>
       <c r="D57">
-        <v>0.85779080114499895</v>
+        <v>-0.83988260734944598</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>399</v>
       </c>
       <c r="B58">
-        <v>-0.72348035712686698</v>
+        <v>0.86571113375600794</v>
       </c>
       <c r="C58">
-        <v>0.57314971441041795</v>
+        <v>-0.26554789321792799</v>
       </c>
       <c r="D58">
-        <v>0.85729629269713403</v>
+        <v>-0.59206750222189397</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="B59">
-        <v>-0.68505867973799806</v>
+        <v>0.86370611541539499</v>
       </c>
       <c r="C59">
-        <v>0.58781171937363597</v>
+        <v>-0.52989285622020099</v>
       </c>
       <c r="D59">
-        <v>0.85596590745770196</v>
+        <v>-0.80657480915656898</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>420</v>
       </c>
       <c r="B60">
-        <v>-0.78172958550904603</v>
+        <v>0.86286471498683903</v>
       </c>
       <c r="C60">
-        <v>0.449940342137852</v>
+        <v>-0.37210528933581999</v>
       </c>
       <c r="D60">
-        <v>0.85517112173722598</v>
+        <v>-0.515088910854965</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B61">
-        <v>-0.83149956228560695</v>
+        <v>0.86187281186151599</v>
       </c>
       <c r="C61">
-        <v>0.77018130458484402</v>
+        <v>-0.50334162330542698</v>
       </c>
       <c r="D61">
-        <v>0.85443205511925902</v>
+        <v>-0.81575867315849804</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="B62">
-        <v>-0.70426099882570203</v>
+        <v>0.85648853381891299</v>
       </c>
       <c r="C62">
-        <v>0.425174791405379</v>
+        <v>-0.41689623469744103</v>
       </c>
       <c r="D62">
-        <v>0.852934426499938</v>
+        <v>-0.71495011472445202</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="B63">
-        <v>-0.65458516422246704</v>
+        <v>0.85341200992302901</v>
       </c>
       <c r="C63">
-        <v>0.44213680525935001</v>
+        <v>-0.45334713473564597</v>
       </c>
       <c r="D63">
-        <v>0.851748582529814</v>
+        <v>-0.78759025430420304</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="B64">
-        <v>-0.74409704780149699</v>
+        <v>0.85237976606711996</v>
       </c>
       <c r="C64">
-        <v>0.73135395454036001</v>
+        <v>-0.35709465862628897</v>
       </c>
       <c r="D64">
-        <v>0.851495836963716</v>
+        <v>-0.499021375634707</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="B65">
-        <v>-0.79387402656196104</v>
+        <v>0.85122932479256597</v>
       </c>
       <c r="C65">
-        <v>0.658230143888479</v>
+        <v>-0.44171441392157301</v>
       </c>
       <c r="D65">
-        <v>0.84773985472793001</v>
+        <v>-0.73771279086882302</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="B66">
-        <v>-0.62667369225890002</v>
+        <v>0.85095842859929205</v>
       </c>
       <c r="C66">
-        <v>0.49444317890877798</v>
+        <v>-0.62074467147759604</v>
       </c>
       <c r="D66">
-        <v>0.84723230235453095</v>
+        <v>-0.688578185326292</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="B67">
-        <v>-0.66748313435879802</v>
+        <v>0.84816903043339997</v>
       </c>
       <c r="C67">
-        <v>0.49193030643005597</v>
+        <v>-0.49586319428027098</v>
       </c>
       <c r="D67">
-        <v>0.84707930910468898</v>
+        <v>-0.64889451237306195</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="B68">
-        <v>-0.69546409514219198</v>
+        <v>0.84690543207868596</v>
       </c>
       <c r="C68">
-        <v>0.49844870325462698</v>
+        <v>-0.47293270480995803</v>
       </c>
       <c r="D68">
-        <v>0.84695982269540804</v>
+        <v>-0.79859321144208095</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>412</v>
       </c>
       <c r="B69">
-        <v>-0.68921696107138397</v>
+        <v>0.84626661897782096</v>
       </c>
       <c r="C69">
-        <v>0.37130538045256101</v>
+        <v>-0.26818212440301498</v>
       </c>
       <c r="D69">
-        <v>0.84654018547012</v>
+        <v>-0.65537081902086503</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="B70">
-        <v>-0.58968694206310601</v>
+        <v>0.84557826214671405</v>
       </c>
       <c r="C70">
-        <v>0.68237335757255801</v>
+        <v>-0.54867068059877699</v>
       </c>
       <c r="D70">
-        <v>0.84579588592833799</v>
+        <v>-0.74539429664423895</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B71">
-        <v>-0.804076941795556</v>
+        <v>0.84064668688200705</v>
       </c>
       <c r="C71">
-        <v>0.42716940337898601</v>
+        <v>-0.51954377361531801</v>
       </c>
       <c r="D71">
-        <v>0.84565383799476701</v>
+        <v>-0.75247893686517098</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="B72">
-        <v>-0.63769259563779801</v>
+        <v>0.84008528012183403</v>
       </c>
       <c r="C72">
-        <v>0.34996614235064</v>
+        <v>-0.418272733020702</v>
       </c>
       <c r="D72">
-        <v>0.84535038864968204</v>
+        <v>-0.73559623930504203</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B73">
-        <v>-0.75171159911234797</v>
+        <v>0.83900332011539203</v>
       </c>
       <c r="C73">
-        <v>0.392130353644639</v>
+        <v>-0.49935402484817598</v>
       </c>
       <c r="D73">
-        <v>0.84428018807066796</v>
+        <v>-0.74463867318505395</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="B74">
-        <v>-0.68867977599665098</v>
+        <v>0.83872439370351004</v>
       </c>
       <c r="C74">
-        <v>0.67668505710219495</v>
+        <v>-0.55104657418515901</v>
       </c>
       <c r="D74">
-        <v>0.84412794418537396</v>
+        <v>-0.74759862237753405</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="B75">
-        <v>-0.62771152547460995</v>
+        <v>0.83817128566689703</v>
       </c>
       <c r="C75">
-        <v>0.67586459842302304</v>
+        <v>-0.4197523771087</v>
       </c>
       <c r="D75">
-        <v>0.84300203772830096</v>
+        <v>-0.70708681385007999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="B76">
-        <v>-0.71786067479776705</v>
+        <v>0.83707141502232196</v>
       </c>
       <c r="C76">
-        <v>0.34234437830257303</v>
+        <v>-0.50493793662616304</v>
       </c>
       <c r="D76">
-        <v>0.84113115958379703</v>
+        <v>-0.78232554594112302</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B77">
-        <v>-0.77870140254297404</v>
+        <v>0.83669562015295795</v>
       </c>
       <c r="C77">
-        <v>0.59648811553604297</v>
+        <v>-0.74496675435694704</v>
       </c>
       <c r="D77">
-        <v>0.83889558881766102</v>
+        <v>-0.75005233039922203</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B78">
-        <v>-0.70605671937198</v>
+        <v>0.83311963226525598</v>
       </c>
       <c r="C78">
-        <v>0.81696879188125304</v>
+        <v>-0.66869384518270902</v>
       </c>
       <c r="D78">
-        <v>0.83811016412001504</v>
+        <v>-0.83315661885958403</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B79">
-        <v>-0.710903915147167</v>
+        <v>0.83233605330161597</v>
       </c>
       <c r="C79">
-        <v>0.53109720766074697</v>
+        <v>-0.52814448010081305</v>
       </c>
       <c r="D79">
-        <v>0.83757976474125595</v>
+        <v>-0.80124355853574603</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="B80">
-        <v>-0.71064294738360201</v>
+        <v>0.83180821745334799</v>
       </c>
       <c r="C80">
-        <v>0.65179870673129903</v>
+        <v>-0.42819194627608698</v>
       </c>
       <c r="D80">
-        <v>0.837574295579393</v>
+        <v>-0.73517521377752304</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B81">
-        <v>-0.65774064088804796</v>
+        <v>0.82868268946420898</v>
       </c>
       <c r="C81">
-        <v>0.36926674547001798</v>
+        <v>-0.46856152831939202</v>
       </c>
       <c r="D81">
-        <v>0.83734445376794198</v>
+        <v>-0.71190094553998495</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>425</v>
       </c>
       <c r="B82">
-        <v>-0.77195016078029799</v>
+        <v>0.82763577174718495</v>
       </c>
       <c r="C82">
-        <v>0.48979937697291398</v>
+        <v>-0.34952892543596797</v>
       </c>
       <c r="D82">
-        <v>0.83690472385285997</v>
+        <v>-0.48320654869288898</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="B83">
-        <v>-0.82646562747494601</v>
+        <v>0.81891862257600501</v>
       </c>
       <c r="C83">
-        <v>0.37694347902137798</v>
+        <v>-0.46927730753027602</v>
       </c>
       <c r="D83">
-        <v>0.83575488452936997</v>
+        <v>-0.602251210853327</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="B84">
-        <v>-0.72627032841716699</v>
+        <v>0.81629264571715399</v>
       </c>
       <c r="C84">
-        <v>0.47539446695585502</v>
+        <v>-0.407998243258271</v>
       </c>
       <c r="D84">
-        <v>0.83556871773452102</v>
+        <v>-0.70839491049427095</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="B85">
-        <v>-0.77802750924914099</v>
+        <v>0.81442435659700696</v>
       </c>
       <c r="C85">
-        <v>0.807283390280505</v>
+        <v>-0.43582530651578599</v>
       </c>
       <c r="D85">
-        <v>0.83336546962876001</v>
+        <v>-0.71819041852097698</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>431</v>
       </c>
       <c r="B86">
-        <v>-0.58311624160268605</v>
+        <v>0.80789824882268102</v>
       </c>
       <c r="C86">
-        <v>0.50383453410392398</v>
+        <v>-0.32570056567767902</v>
       </c>
       <c r="D86">
-        <v>0.83315678142037497</v>
+        <v>-0.43759136189304099</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>409</v>
       </c>
       <c r="B87">
-        <v>-0.74309112431467905</v>
+        <v>0.80428364881124703</v>
       </c>
       <c r="C87">
-        <v>0.62436467188043399</v>
+        <v>-0.168965045018278</v>
       </c>
       <c r="D87">
-        <v>0.83280061767709501</v>
+        <v>-0.62614412524854501</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="B88">
-        <v>-0.628763380166248</v>
+        <v>0.794050112483905</v>
       </c>
       <c r="C88">
-        <v>0.84048581471302897</v>
+        <v>-0.19843594981437401</v>
       </c>
       <c r="D88">
-        <v>0.83233978070096104</v>
+        <v>-0.44339862466427499</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>416</v>
       </c>
       <c r="B89">
-        <v>-0.73108040555331999</v>
+        <v>0.78903580912515003</v>
       </c>
       <c r="C89">
-        <v>0.69027563496773003</v>
+        <v>-0.30419953485121798</v>
       </c>
       <c r="D89">
-        <v>0.83181829921305395</v>
+        <v>-0.45690783016728598</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>248</v>
+        <v>423</v>
       </c>
       <c r="B90">
-        <v>-0.71493370741276396</v>
+        <v>0.78576351913069498</v>
       </c>
       <c r="C90">
-        <v>0.439691073478084</v>
+        <v>-0.17466057249004099</v>
       </c>
       <c r="D90">
-        <v>0.82887867417069905</v>
+        <v>-0.471480006310319</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B91">
-        <v>-0.81940216083756501</v>
+        <v>0.78253157376273696</v>
       </c>
       <c r="C91">
-        <v>0.693911700825115</v>
+        <v>-0.70268660493987301</v>
       </c>
       <c r="D91">
-        <v>0.82810550402944905</v>
+        <v>-0.75283981219054896</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>428</v>
       </c>
       <c r="B92">
-        <v>-0.75543809432648901</v>
+        <v>0.77866285415653202</v>
       </c>
       <c r="C92">
-        <v>0.68598268839167198</v>
+        <v>-0.15243243412058399</v>
       </c>
       <c r="D92">
-        <v>0.82772749136230395</v>
+        <v>-0.49028813498358298</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="B93">
-        <v>-0.72281571820198298</v>
+        <v>0.77741198627142705</v>
       </c>
       <c r="C93">
-        <v>0.50969215275978097</v>
+        <v>-0.38542692421905</v>
       </c>
       <c r="D93">
-        <v>0.82610515398669604</v>
+        <v>-0.63816231462619899</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="B94">
-        <v>-0.73502951598050004</v>
+        <v>0.77532568373386501</v>
       </c>
       <c r="C94">
-        <v>0.40747791196157201</v>
+        <v>-0.24905151681661</v>
       </c>
       <c r="D94">
-        <v>0.82486519361737998</v>
+        <v>-0.42188809642174502</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.66130848158801003</v>
+        <v>0.77396150977073097</v>
       </c>
       <c r="C95">
-        <v>0.579198662711079</v>
+        <v>-0.72650975909204096</v>
       </c>
       <c r="D95">
-        <v>0.82467377186000401</v>
+        <v>-0.84664663800460804</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="B96">
-        <v>-0.80701072531372997</v>
+        <v>0.76667049099129103</v>
       </c>
       <c r="C96">
-        <v>0.72133606511193304</v>
+        <v>-0.436727726484539</v>
       </c>
       <c r="D96">
-        <v>0.82429797941511396</v>
+        <v>-0.44974997479722301</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B97">
-        <v>-0.78676320262149402</v>
+        <v>0.75582962568935996</v>
       </c>
       <c r="C97">
-        <v>0.64640815323516598</v>
+        <v>-0.52441452506553698</v>
       </c>
       <c r="D97">
-        <v>0.82377226374576296</v>
+        <v>-0.82127740623199896</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>370</v>
       </c>
       <c r="B98">
-        <v>-0.80188896557309797</v>
+        <v>0.74835940155256497</v>
       </c>
       <c r="C98">
-        <v>0.60956925417142105</v>
+        <v>-0.23321817816413701</v>
       </c>
       <c r="D98">
-        <v>0.82347696460053599</v>
+        <v>-0.658149018850262</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>433</v>
       </c>
       <c r="B99">
-        <v>-0.62372398586500399</v>
+        <v>0.74433122237578497</v>
       </c>
       <c r="C99">
-        <v>0.36869161710192899</v>
+        <v>-0.11533798805317</v>
       </c>
       <c r="D99">
-        <v>0.82271952610676802</v>
+        <v>-0.40152001863453701</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>434</v>
       </c>
       <c r="B100">
-        <v>-0.65821753588183096</v>
+        <v>0.741406763082881</v>
       </c>
       <c r="C100">
-        <v>0.63700488094424002</v>
+        <v>-0.30365402522298801</v>
       </c>
       <c r="D100">
-        <v>0.82252581817319503</v>
+        <v>-0.37772636297101397</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>372</v>
       </c>
       <c r="B101">
-        <v>-0.78686711808888199</v>
+        <v>0.72739178066539301</v>
       </c>
       <c r="C101">
-        <v>0.79528240441351405</v>
+        <v>-0.30216068972827897</v>
       </c>
       <c r="D101">
-        <v>0.82044752203277005</v>
+        <v>-0.55597321232935504</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="B102">
-        <v>-0.76272024281270501</v>
+        <v>0.70652255864417002</v>
       </c>
       <c r="C102">
-        <v>0.47262874610877897</v>
+        <v>-0.60818582923935205</v>
       </c>
       <c r="D102">
-        <v>0.82002372634847198</v>
+        <v>-0.685662683154177</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="B103">
-        <v>-0.755874483717067</v>
+        <v>0.69561378440945798</v>
       </c>
       <c r="C103">
-        <v>0.43261467290538302</v>
+        <v>-0.44710116745120798</v>
       </c>
       <c r="D103">
-        <v>0.81808321834285203</v>
+        <v>-0.50796724133725601</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>411</v>
       </c>
       <c r="B104">
-        <v>-0.606802588284996</v>
+        <v>0.69059654560896899</v>
       </c>
       <c r="C104">
-        <v>0.38823057276999601</v>
+        <v>-0.26542556999761102</v>
       </c>
       <c r="D104">
-        <v>0.81625834871052705</v>
+        <v>-0.50945031257571205</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B105">
-        <v>-0.52338799895579002</v>
+        <v>0.678384918035982</v>
       </c>
       <c r="C105">
-        <v>0.47962611236597902</v>
+        <v>-0.65249707594272699</v>
       </c>
       <c r="D105">
-        <v>0.81543781729495302</v>
+        <v>-0.72680603190928905</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B106">
-        <v>-0.64810904014965698</v>
+        <v>0.66588494367231499</v>
       </c>
       <c r="C106">
-        <v>0.54588394208837199</v>
+        <v>-0.63808039951425</v>
       </c>
       <c r="D106">
-        <v>0.815273841151269</v>
+        <v>-0.77461810370634199</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="B107">
-        <v>-0.67668332726835401</v>
+        <v>0.62905509102076196</v>
       </c>
       <c r="C107">
-        <v>0.67740435589847603</v>
+        <v>-0.66851598884510599</v>
       </c>
       <c r="D107">
-        <v>0.814274625446198</v>
+        <v>-0.68609147930495396</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>233</v>
+        <v>435</v>
       </c>
       <c r="B108">
-        <v>-0.65269508788027097</v>
+        <v>0.625111550887409</v>
       </c>
       <c r="C108">
-        <v>0.47726831841643202</v>
+        <v>-0.120003284336915</v>
       </c>
       <c r="D108">
-        <v>0.81407721746438999</v>
+        <v>-0.30337201638719902</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="B109">
-        <v>-0.77560538948841795</v>
+        <v>0.61855842709169195</v>
       </c>
       <c r="C109">
-        <v>0.72019089333938402</v>
+        <v>-0.54370811241278505</v>
       </c>
       <c r="D109">
-        <v>0.81402784431963904</v>
+        <v>-0.58681486910829495</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="B110">
-        <v>-0.788935328563517</v>
+        <v>0.61053202197876899</v>
       </c>
       <c r="C110">
-        <v>0.52158640727218397</v>
+        <v>-0.36825993702750198</v>
       </c>
       <c r="D110">
-        <v>0.81399482495444697</v>
+        <v>-0.47298570503117499</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="B111">
-        <v>-0.619335566990315</v>
+        <v>0.59645274443331597</v>
       </c>
       <c r="C111">
-        <v>0.45731564148253501</v>
+        <v>-0.52971586173295804</v>
       </c>
       <c r="D111">
-        <v>0.81202878140477297</v>
+        <v>-0.60100237058333195</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="B112">
-        <v>-0.65697987144671299</v>
+        <v>0.52975115031028097</v>
       </c>
       <c r="C112">
-        <v>0.35160806966024899</v>
+        <v>-0.201998257874729</v>
       </c>
       <c r="D112">
-        <v>0.81119054389575396</v>
+        <v>-0.35382678378575999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="B113">
-        <v>-0.74049837156156895</v>
+        <v>0.45681412359277601</v>
       </c>
       <c r="C113">
-        <v>0.73388258713877597</v>
+        <v>-0.69632892375719802</v>
       </c>
       <c r="D113">
-        <v>0.81007389986894296</v>
+        <v>-0.66086208453991102</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>282</v>
+        <v>386</v>
       </c>
       <c r="B114">
-        <v>-0.65893806561141699</v>
+        <v>0.214387339869271</v>
       </c>
       <c r="C114">
-        <v>0.39309226499365102</v>
+        <v>-0.58408074465785897</v>
       </c>
       <c r="D114">
-        <v>0.80929189328930895</v>
+        <v>-0.296489463764807</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="B115">
-        <v>-0.71155465030668597</v>
+        <v>6.6919023107959802E-2</v>
       </c>
       <c r="C115">
-        <v>0.68114971689001202</v>
+        <v>0.61594472548075296</v>
       </c>
       <c r="D115">
-        <v>0.80908412655015405</v>
+        <v>0.194834777024156</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="B116">
-        <v>-0.63938958021507197</v>
+        <v>2.2642911659143301E-2</v>
       </c>
       <c r="C116">
-        <v>0.32726644936062999</v>
+        <v>0.38015004519163997</v>
       </c>
       <c r="D116">
-        <v>0.80827107478357396</v>
+        <v>0.38559372808633402</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>427</v>
       </c>
       <c r="B117">
-        <v>-0.71873242628052603</v>
+        <v>-8.9708317167840196E-3</v>
       </c>
       <c r="C117">
-        <v>0.73656228557570302</v>
+        <v>-0.44530516755986899</v>
       </c>
       <c r="D117">
-        <v>0.80791447701290697</v>
+        <v>-9.6847849872684202E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="B118">
-        <v>-0.76434529157132403</v>
+        <v>-1.30185540448907E-2</v>
       </c>
       <c r="C118">
-        <v>0.68543431141348798</v>
+        <v>0.472821366515981</v>
       </c>
       <c r="D118">
-        <v>0.80776439288264601</v>
+        <v>0.32392347432850199</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>341</v>
       </c>
       <c r="B119">
-        <v>-0.54518721269160197</v>
+        <v>-3.8844729323360402E-2</v>
       </c>
       <c r="C119">
-        <v>0.49551019332112201</v>
+        <v>0.724521129615048</v>
       </c>
       <c r="D119">
-        <v>0.80751799148498604</v>
+        <v>0.35483621055507403</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>360</v>
       </c>
       <c r="B120">
-        <v>-0.64483434683062202</v>
+        <v>-6.2372136996274197E-2</v>
       </c>
       <c r="C120">
-        <v>0.71273854169041295</v>
+        <v>0.76791143870887801</v>
       </c>
       <c r="D120">
-        <v>0.80248605488357505</v>
+        <v>0.29183517474411402</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="B121">
-        <v>-0.58500619778565599</v>
+        <v>-0.108219819377814</v>
       </c>
       <c r="C121">
-        <v>0.44131357273551303</v>
+        <v>0.78607889305549505</v>
       </c>
       <c r="D121">
-        <v>0.80169443308534205</v>
+        <v>0.39083593404480699</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>407</v>
       </c>
       <c r="B122">
-        <v>-0.67074520228909895</v>
+        <v>-0.14386077872231201</v>
       </c>
       <c r="C122">
-        <v>0.60603095577881705</v>
+        <v>0.71042334709435295</v>
       </c>
       <c r="D122">
-        <v>0.800957653114027</v>
+        <v>0.31302155270547599</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="B123">
-        <v>-0.70793384459740105</v>
+        <v>-0.156608929064429</v>
       </c>
       <c r="C123">
-        <v>0.79961397100633502</v>
+        <v>0.54769888637979003</v>
       </c>
       <c r="D123">
-        <v>0.800695216348149</v>
+        <v>0.57804153483335097</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>397</v>
       </c>
       <c r="B124">
-        <v>-0.62727151847753804</v>
+        <v>-0.192914891096299</v>
       </c>
       <c r="C124">
-        <v>0.83253844271405597</v>
+        <v>0.73074559881805101</v>
       </c>
       <c r="D124">
-        <v>0.79947733924432896</v>
+        <v>0.36546299742636501</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="B125">
-        <v>-0.67923694684546898</v>
+        <v>-0.19672781246991</v>
       </c>
       <c r="C125">
-        <v>0.30644649856941097</v>
+        <v>0.73522276969102796</v>
       </c>
       <c r="D125">
-        <v>0.79751007290207299</v>
+        <v>0.41923449839214599</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="B126">
-        <v>-0.67311453403913402</v>
+        <v>-0.20785153059122</v>
       </c>
       <c r="C126">
-        <v>0.80072869940830704</v>
+        <v>0.51395864605070096</v>
       </c>
       <c r="D126">
-        <v>0.79685627420284799</v>
+        <v>0.24702536425344501</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B127">
-        <v>-0.684876287828035</v>
+        <v>-0.210051889352288</v>
       </c>
       <c r="C127">
-        <v>0.30937101775619502</v>
+        <v>0.73274738452452204</v>
       </c>
       <c r="D127">
-        <v>0.79641888564951802</v>
+        <v>0.40796795347353998</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="B128">
-        <v>-0.62952114018651095</v>
+        <v>-0.21282240284346199</v>
       </c>
       <c r="C128">
-        <v>0.61907144142751303</v>
+        <v>0.81501963197724503</v>
       </c>
       <c r="D128">
-        <v>0.79609800427208199</v>
+        <v>0.37894320492280897</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="B129">
-        <v>-0.59676458269118704</v>
+        <v>-0.22457422255805001</v>
       </c>
       <c r="C129">
-        <v>0.91235429364402099</v>
+        <v>0.64773399357016304</v>
       </c>
       <c r="D129">
-        <v>0.79601523928175799</v>
+        <v>0.33148046321973601</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>405</v>
       </c>
       <c r="B130">
-        <v>-0.65973079644879995</v>
+        <v>-0.24016725160602401</v>
       </c>
       <c r="C130">
-        <v>0.67175701941703203</v>
+        <v>0.71449433316326805</v>
       </c>
       <c r="D130">
-        <v>0.79574754299487804</v>
+        <v>0.30225648384710901</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="B131">
-        <v>-0.63663271788228903</v>
+        <v>-0.240600777145629</v>
       </c>
       <c r="C131">
-        <v>0.60064831795700002</v>
+        <v>0.51368790319116897</v>
       </c>
       <c r="D131">
-        <v>0.79544169613349902</v>
+        <v>0.29893249893013302</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B132">
-        <v>-0.64966973718244303</v>
+        <v>-0.26808472237848702</v>
       </c>
       <c r="C132">
-        <v>0.69114927025113204</v>
+        <v>0.74044948971692304</v>
       </c>
       <c r="D132">
-        <v>0.79488032665271102</v>
+        <v>0.56628267978354596</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="B133">
-        <v>-0.57574953832155895</v>
+        <v>-0.29119147720313099</v>
       </c>
       <c r="C133">
-        <v>0.71505341069005901</v>
+        <v>0.68884663456579498</v>
       </c>
       <c r="D133">
-        <v>0.79296558709674103</v>
+        <v>0.62018765485559302</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="B134">
-        <v>-0.66773629134179402</v>
+        <v>-0.293213433597386</v>
       </c>
       <c r="C134">
-        <v>0.32625796610332303</v>
+        <v>0.75855798389532503</v>
       </c>
       <c r="D134">
-        <v>0.78727306651136997</v>
+        <v>0.52072737398222801</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>51</v>
+        <v>421</v>
       </c>
       <c r="B135">
-        <v>-0.74228965203175301</v>
+        <v>-0.31109383614299302</v>
       </c>
       <c r="C135">
-        <v>0.81764731640986099</v>
+        <v>0.61002371226591001</v>
       </c>
       <c r="D135">
-        <v>0.78377988268147503</v>
+        <v>0.346491469035768</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>109</v>
+        <v>413</v>
       </c>
       <c r="B136">
-        <v>-0.69377521993315605</v>
+        <v>-0.314539416211707</v>
       </c>
       <c r="C136">
-        <v>0.73041294424813996</v>
+        <v>0.66190658341276198</v>
       </c>
       <c r="D136">
-        <v>0.78344652747558396</v>
+        <v>0.36187212125319501</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="B137">
-        <v>-0.71504153124222303</v>
+        <v>-0.32649525595397999</v>
       </c>
       <c r="C137">
-        <v>0.60293899544274798</v>
+        <v>0.62150070897237697</v>
       </c>
       <c r="D137">
-        <v>0.78254829789759806</v>
+        <v>0.59934095200153104</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="B138">
-        <v>-0.52176148818553603</v>
+        <v>-0.33641882122160099</v>
       </c>
       <c r="C138">
-        <v>0.70411370290048703</v>
+        <v>0.63063114755879002</v>
       </c>
       <c r="D138">
-        <v>0.78011085468799102</v>
+        <v>0.62364952231216297</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>400</v>
       </c>
       <c r="B139">
-        <v>-0.50000606736609199</v>
+        <v>-0.33678575395676003</v>
       </c>
       <c r="C139">
-        <v>0.51762194235405601</v>
+        <v>0.59669788330473705</v>
       </c>
       <c r="D139">
-        <v>0.77979472639839398</v>
+        <v>0.28694341655585798</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="B140">
-        <v>-0.74625504507210305</v>
+        <v>-0.33698840787018097</v>
       </c>
       <c r="C140">
-        <v>0.72812220575644104</v>
+        <v>0.77154145441361899</v>
       </c>
       <c r="D140">
-        <v>0.77972244615993702</v>
+        <v>0.51994589352409604</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="B141">
-        <v>-0.710297526400409</v>
+        <v>-0.34162202922467499</v>
       </c>
       <c r="C141">
-        <v>0.56721068591684498</v>
+        <v>0.42851665940891598</v>
       </c>
       <c r="D141">
-        <v>0.77871202996817102</v>
+        <v>0.35793026448969401</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B142">
-        <v>-0.76714855967415596</v>
+        <v>-0.34999003634361497</v>
       </c>
       <c r="C142">
-        <v>0.62364016294199798</v>
+        <v>0.85777935017038398</v>
       </c>
       <c r="D142">
-        <v>0.77540017019229202</v>
+        <v>0.56835260966901802</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B143">
-        <v>-0.74827873583388904</v>
+        <v>-0.35298487700355802</v>
       </c>
       <c r="C143">
-        <v>0.65130687413016097</v>
+        <v>0.84801864381210401</v>
       </c>
       <c r="D143">
-        <v>0.77475078839625999</v>
+        <v>0.533574019764534</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="B144">
-        <v>-0.52643808254964497</v>
+        <v>-0.36415237667184103</v>
       </c>
       <c r="C144">
-        <v>0.79852864826147296</v>
+        <v>0.73255612445749796</v>
       </c>
       <c r="D144">
-        <v>0.773724262424755</v>
+        <v>0.49799583936827602</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B145">
-        <v>-0.67639142285684295</v>
+        <v>-0.367601834426459</v>
       </c>
       <c r="C145">
-        <v>0.40474132645599198</v>
+        <v>0.53059865375299597</v>
       </c>
       <c r="D145">
-        <v>0.77144051764102906</v>
+        <v>0.48484987963528198</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>33</v>
+        <v>295</v>
       </c>
       <c r="B146">
-        <v>-0.61886833482116699</v>
+        <v>-0.37275083671034098</v>
       </c>
       <c r="C146">
-        <v>0.61141243987825999</v>
+        <v>0.61699319066200597</v>
       </c>
       <c r="D146">
-        <v>0.77068717051193203</v>
+        <v>0.50481076029972505</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="B147">
-        <v>-0.54214927868664298</v>
+        <v>-0.37492608313460501</v>
       </c>
       <c r="C147">
-        <v>0.39707557987192699</v>
+        <v>0.45492636821685301</v>
       </c>
       <c r="D147">
-        <v>0.77038011025229802</v>
+        <v>0.45746915636273899</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="B148">
-        <v>-0.62779430404679404</v>
+        <v>-0.386525202142533</v>
       </c>
       <c r="C148">
-        <v>0.49613124852658702</v>
+        <v>0.258272649444029</v>
       </c>
       <c r="D148">
-        <v>0.76981956052156497</v>
+        <v>0.69420275497985195</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="B149">
-        <v>-0.51407117858120299</v>
+        <v>-0.38851977991742098</v>
       </c>
       <c r="C149">
-        <v>0.39893406417652599</v>
+        <v>0.56262008333107905</v>
       </c>
       <c r="D149">
-        <v>0.769426621654828</v>
+        <v>0.61416178202393301</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="B150">
-        <v>-0.62456164389237201</v>
+        <v>-0.38987371941556798</v>
       </c>
       <c r="C150">
-        <v>0.894124059512307</v>
+        <v>0.56673041001477398</v>
       </c>
       <c r="D150">
-        <v>0.76741216866467399</v>
+        <v>0.64844003477099499</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="B151">
-        <v>-0.62691264815201198</v>
+        <v>-0.390647762428531</v>
       </c>
       <c r="C151">
-        <v>0.65641895298911701</v>
+        <v>0.68663029382766105</v>
       </c>
       <c r="D151">
-        <v>0.76690033389499801</v>
+        <v>0.59707885488388002</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="B152">
-        <v>-0.57904481320228995</v>
+        <v>-0.391588932780572</v>
       </c>
       <c r="C152">
-        <v>0.54237722288484602</v>
+        <v>0.55411576474193902</v>
       </c>
       <c r="D152">
-        <v>0.76591588029009205</v>
+        <v>0.73404173707575304</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>309</v>
       </c>
       <c r="B153">
-        <v>-0.641658222631449</v>
+        <v>-0.39415490605577502</v>
       </c>
       <c r="C153">
-        <v>0.92669096682174301</v>
+        <v>0.49637641209540401</v>
       </c>
       <c r="D153">
-        <v>0.76299208075091296</v>
+        <v>0.47517204066552798</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="B154">
-        <v>-0.68261908784372305</v>
+        <v>-0.39656675828605098</v>
       </c>
       <c r="C154">
-        <v>0.60193746074643295</v>
+        <v>0.74283416266642599</v>
       </c>
       <c r="D154">
-        <v>0.75761358363030296</v>
+        <v>0.70249586379156004</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B155">
-        <v>-0.63847508926499297</v>
+        <v>-0.39677786286848898</v>
       </c>
       <c r="C155">
-        <v>0.30630659565537299</v>
+        <v>0.40393901659278397</v>
       </c>
       <c r="D155">
-        <v>0.75596446028913</v>
+        <v>0.70553885703712904</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="B156">
-        <v>-0.57124637809009104</v>
+        <v>-0.40380016077490199</v>
       </c>
       <c r="C156">
-        <v>0.57339810772224797</v>
+        <v>0.53813269238501404</v>
       </c>
       <c r="D156">
-        <v>0.75544708708826303</v>
+        <v>0.501661993460227</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="B157">
-        <v>-0.79172727407439503</v>
+        <v>-0.404490225776858</v>
       </c>
       <c r="C157">
-        <v>0.61251227694680199</v>
+        <v>0.62943793878030196</v>
       </c>
       <c r="D157">
-        <v>0.75294533551423004</v>
+        <v>0.55352177376434997</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="B158">
-        <v>-0.478455619694241</v>
+        <v>-0.40825172701675899</v>
       </c>
       <c r="C158">
-        <v>0.31403052338376702</v>
+        <v>0.80333440443992099</v>
       </c>
       <c r="D158">
-        <v>0.74948574000414103</v>
+        <v>0.60287557143181703</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="B159">
-        <v>-0.69427370049749704</v>
+        <v>-0.40954024533286698</v>
       </c>
       <c r="C159">
-        <v>0.71544511545314404</v>
+        <v>0.69539452470563501</v>
       </c>
       <c r="D159">
-        <v>0.74585998708230505</v>
+        <v>0.505714364295479</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="B160">
-        <v>-0.52484036202512696</v>
+        <v>-0.41297205885025601</v>
       </c>
       <c r="C160">
-        <v>0.69946398157353595</v>
+        <v>0.73115402944832597</v>
       </c>
       <c r="D160">
-        <v>0.74523864310683496</v>
+        <v>0.51064712956599601</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="B161">
-        <v>-0.67001707971011004</v>
+        <v>-0.41610137171966499</v>
       </c>
       <c r="C161">
-        <v>0.93318485999308598</v>
+        <v>0.60995271555781705</v>
       </c>
       <c r="D161">
-        <v>0.74195849114075296</v>
+        <v>0.70469263602907095</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="B162">
-        <v>-0.62263722886518802</v>
+        <v>-0.42037524876910398</v>
       </c>
       <c r="C162">
-        <v>0.57628332196204801</v>
+        <v>0.50703429564282498</v>
       </c>
       <c r="D162">
-        <v>0.74178782281162903</v>
+        <v>0.57418010520982399</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B163">
-        <v>-0.58447562238363304</v>
+        <v>-0.42109411804789498</v>
       </c>
       <c r="C163">
-        <v>0.43790291645455398</v>
+        <v>0.82659390009243505</v>
       </c>
       <c r="D163">
-        <v>0.74152048458809705</v>
+        <v>0.537303039756165</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="B164">
-        <v>-0.51585431294588502</v>
+        <v>-0.43175774192687399</v>
       </c>
       <c r="C164">
-        <v>0.667057127415707</v>
+        <v>0.87143813012662297</v>
       </c>
       <c r="D164">
-        <v>0.740164288250858</v>
+        <v>0.55126621920821595</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="B165">
-        <v>-0.71698357772967602</v>
+        <v>-0.43205643357824097</v>
       </c>
       <c r="C165">
-        <v>0.77636803485796502</v>
+        <v>0.65800364502978004</v>
       </c>
       <c r="D165">
-        <v>0.73973840396378299</v>
+        <v>0.45542556349373597</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="B166">
-        <v>-0.56029854120665701</v>
+        <v>-0.43307795240249303</v>
       </c>
       <c r="C166">
-        <v>0.77207649218678398</v>
+        <v>0.82088115816198304</v>
       </c>
       <c r="D166">
-        <v>0.73768661286955794</v>
+        <v>0.50464929483152599</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="B167">
-        <v>-0.68521372941921099</v>
+        <v>-0.43556095622185498</v>
       </c>
       <c r="C167">
-        <v>0.435695633264509</v>
+        <v>0.61128521569277505</v>
       </c>
       <c r="D167">
-        <v>0.73433088724352802</v>
+        <v>0.72943932252156796</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B168">
-        <v>-0.391588932780572</v>
+        <v>-0.43882553300494798</v>
       </c>
       <c r="C168">
-        <v>0.55411576474193902</v>
+        <v>0.56069707649849199</v>
       </c>
       <c r="D168">
-        <v>0.73404173707575304</v>
+        <v>0.72210300435263797</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="B169">
-        <v>-0.516559039609646</v>
+        <v>-0.44220976732975698</v>
       </c>
       <c r="C169">
-        <v>0.84537387251527696</v>
+        <v>0.74753343282781304</v>
       </c>
       <c r="D169">
-        <v>0.73374280752255305</v>
+        <v>0.486966420042941</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="B170">
-        <v>-0.70025811098805302</v>
+        <v>-0.443986655688554</v>
       </c>
       <c r="C170">
-        <v>0.56520807994376399</v>
+        <v>0.86688218327326405</v>
       </c>
       <c r="D170">
-        <v>0.73316845486146498</v>
+        <v>0.57004265321185998</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B171">
-        <v>-0.60350192376873502</v>
+        <v>-0.44491383335941198</v>
       </c>
       <c r="C171">
-        <v>0.33788550862866601</v>
+        <v>0.53439814598434499</v>
       </c>
       <c r="D171">
-        <v>0.73263915222875198</v>
+        <v>0.52835153066307095</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>270</v>
+        <v>374</v>
       </c>
       <c r="B172">
-        <v>-0.79891871799449699</v>
+        <v>-0.446786621537133</v>
       </c>
       <c r="C172">
-        <v>0.55533728950039596</v>
+        <v>0.75409270707063203</v>
       </c>
       <c r="D172">
-        <v>0.730883201237567</v>
+        <v>0.40609498607690703</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>363</v>
       </c>
       <c r="B173">
-        <v>-0.695149731523521</v>
+        <v>-0.447501192507267</v>
       </c>
       <c r="C173">
-        <v>0.85522051683556599</v>
+        <v>0.55550827960878801</v>
       </c>
       <c r="D173">
-        <v>0.73001187009385604</v>
+        <v>0.49597858602946598</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
       <c r="B174">
-        <v>-0.47925634215603202</v>
+        <v>-0.44887852767320002</v>
       </c>
       <c r="C174">
-        <v>0.667640086191158</v>
+        <v>0.739093847617323</v>
       </c>
       <c r="D174">
-        <v>0.72958205583077795</v>
+        <v>0.454342328000996</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="B175">
-        <v>-0.43556095622185498</v>
+        <v>-0.45326912349785897</v>
       </c>
       <c r="C175">
-        <v>0.61128521569277505</v>
+        <v>0.89934988764622004</v>
       </c>
       <c r="D175">
-        <v>0.72943932252156796</v>
+        <v>0.55566247387795098</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="B176">
-        <v>-0.58132342585521601</v>
+        <v>-0.45694522953767602</v>
       </c>
       <c r="C176">
-        <v>0.90856680708769999</v>
+        <v>0.71951298382031403</v>
       </c>
       <c r="D176">
-        <v>0.72742882263609299</v>
+        <v>0.529133660937529</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="B177">
-        <v>-0.574245774007764</v>
+        <v>-0.46012875159056899</v>
       </c>
       <c r="C177">
-        <v>0.34978170759404298</v>
+        <v>0.60914882891586297</v>
       </c>
       <c r="D177">
-        <v>0.72571903802079696</v>
+        <v>0.46607306028298301</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="B178">
-        <v>-0.56255162606076503</v>
+        <v>-0.46111927487614102</v>
       </c>
       <c r="C178">
-        <v>0.317807487490114</v>
+        <v>0.78664689158752199</v>
       </c>
       <c r="D178">
-        <v>0.72355499825355496</v>
+        <v>0.60128828538365497</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="B179">
-        <v>-0.43882553300494798</v>
+        <v>-0.47517310816696201</v>
       </c>
       <c r="C179">
-        <v>0.56069707649849199</v>
+        <v>0.836535601353115</v>
       </c>
       <c r="D179">
-        <v>0.72210300435263797</v>
+        <v>0.53228822960468103</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B180">
-        <v>-0.69341533467938699</v>
+        <v>-0.47572030997847398</v>
       </c>
       <c r="C180">
-        <v>0.79083552231301102</v>
+        <v>0.69760466824595602</v>
       </c>
       <c r="D180">
-        <v>0.71991774707898204</v>
+        <v>0.58035540309991596</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="B181">
-        <v>-0.55977315947230699</v>
+        <v>-0.47705233433987598</v>
       </c>
       <c r="C181">
-        <v>0.83537152695314898</v>
+        <v>0.83590303925035203</v>
       </c>
       <c r="D181">
-        <v>0.71975607547628295</v>
+        <v>0.63258999391986104</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="B182">
-        <v>-0.56497749167463795</v>
+        <v>-0.478455619694241</v>
       </c>
       <c r="C182">
-        <v>0.48407297732983101</v>
+        <v>0.31403052338376702</v>
       </c>
       <c r="D182">
-        <v>0.718795511021325</v>
+        <v>0.74948574000414103</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B183">
-        <v>-0.57716641080413</v>
+        <v>-0.47925634215603202</v>
       </c>
       <c r="C183">
-        <v>0.85819080696325101</v>
+        <v>0.667640086191158</v>
       </c>
       <c r="D183">
-        <v>0.71780929542748195</v>
+        <v>0.72958205583077795</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="B184">
-        <v>-0.77368595618119196</v>
+        <v>-0.48953440725069303</v>
       </c>
       <c r="C184">
-        <v>0.70976225427629702</v>
+        <v>0.722358809205217</v>
       </c>
       <c r="D184">
-        <v>0.71568631930486604</v>
+        <v>0.65545718801212105</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="B185">
-        <v>-0.58588244225399499</v>
+        <v>-0.49039670778900202</v>
       </c>
       <c r="C185">
-        <v>0.60800042396482801</v>
+        <v>0.73776165899203106</v>
       </c>
       <c r="D185">
-        <v>0.71511083188317004</v>
+        <v>0.57620621564425301</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B186">
-        <v>-0.58658908767540296</v>
+        <v>-0.490428746247209</v>
       </c>
       <c r="C186">
-        <v>0.473953448159598</v>
+        <v>0.471188741103367</v>
       </c>
       <c r="D186">
-        <v>0.71217306335825503</v>
+        <v>0.62268611411693597</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="B187">
-        <v>-0.54117482122428695</v>
+        <v>-0.49046945732552899</v>
       </c>
       <c r="C187">
-        <v>0.55454017280747303</v>
+        <v>0.476653212037358</v>
       </c>
       <c r="D187">
-        <v>0.71112318166432398</v>
+        <v>0.57070509484447096</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="B188">
-        <v>-0.51904788733211304</v>
+        <v>-0.49165960301008499</v>
       </c>
       <c r="C188">
-        <v>0.73895781717384001</v>
+        <v>0.73895946593741102</v>
       </c>
       <c r="D188">
-        <v>0.71008074246906705</v>
+        <v>0.60491659194999003</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B189">
-        <v>-0.69128794853644704</v>
+        <v>-0.49176949388629199</v>
       </c>
       <c r="C189">
-        <v>0.726840730167989</v>
+        <v>0.87265584491991599</v>
       </c>
       <c r="D189">
-        <v>0.70753140636703604</v>
+        <v>0.70552341585225598</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B190">
-        <v>-0.39677786286848898</v>
+        <v>-0.497011491448136</v>
       </c>
       <c r="C190">
-        <v>0.40393901659278397</v>
+        <v>0.38923010081864301</v>
       </c>
       <c r="D190">
-        <v>0.70553885703712904</v>
+        <v>0.57022364385361901</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>112</v>
+        <v>395</v>
       </c>
       <c r="B191">
-        <v>-0.49176949388629199</v>
+        <v>-0.49740799877431202</v>
       </c>
       <c r="C191">
-        <v>0.87265584491991599</v>
+        <v>0.32114406569581599</v>
       </c>
       <c r="D191">
-        <v>0.70552341585225598</v>
+        <v>0.58246060764123198</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="B192">
-        <v>-0.74177998681161506</v>
+        <v>-0.50000606736609199</v>
       </c>
       <c r="C192">
-        <v>0.709411114365879</v>
+        <v>0.51762194235405601</v>
       </c>
       <c r="D192">
-        <v>0.70487522868128105</v>
+        <v>0.77979472639839398</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="B193">
-        <v>-0.41610137171966499</v>
+        <v>-0.50110798386720001</v>
       </c>
       <c r="C193">
-        <v>0.60995271555781705</v>
+        <v>0.88073211781202898</v>
       </c>
       <c r="D193">
-        <v>0.70469263602907095</v>
+        <v>0.64357226321008998</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B194">
-        <v>-0.75195715837075705</v>
+        <v>-0.50657192840552001</v>
       </c>
       <c r="C194">
-        <v>0.53371385080268896</v>
+        <v>0.59447414791959596</v>
       </c>
       <c r="D194">
-        <v>0.70384083400144704</v>
+        <v>0.65994505571834094</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="B195">
-        <v>-0.58943258610521598</v>
+        <v>-0.50800563180307101</v>
       </c>
       <c r="C195">
-        <v>0.82968259325194704</v>
+        <v>0.66448268816782896</v>
       </c>
       <c r="D195">
-        <v>0.70287471586438699</v>
+        <v>0.65337128685396395</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B196">
-        <v>-0.39656675828605098</v>
+        <v>-0.50806975318043301</v>
       </c>
       <c r="C196">
-        <v>0.74283416266642599</v>
+        <v>0.48769568025181198</v>
       </c>
       <c r="D196">
-        <v>0.70249586379156004</v>
+        <v>0.65570751568338503</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B197">
-        <v>-0.619442403229711</v>
+        <v>-0.51407117858120299</v>
       </c>
       <c r="C197">
-        <v>0.52316542909924502</v>
+        <v>0.39893406417652599</v>
       </c>
       <c r="D197">
-        <v>0.69660448906291905</v>
+        <v>0.769426621654828</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="B198">
-        <v>-0.55488890636413302</v>
+        <v>-0.51500037496376705</v>
       </c>
       <c r="C198">
-        <v>0.78619407374406503</v>
+        <v>0.697630147546489</v>
       </c>
       <c r="D198">
-        <v>0.696022664737728</v>
+        <v>0.64214665488517597</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="B199">
-        <v>-0.65030158572206698</v>
+        <v>-0.51585431294588502</v>
       </c>
       <c r="C199">
-        <v>0.77019601759929901</v>
+        <v>0.667057127415707</v>
       </c>
       <c r="D199">
-        <v>0.69436993343909803</v>
+        <v>0.740164288250858</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>368</v>
+        <v>35</v>
       </c>
       <c r="B200">
-        <v>-0.386525202142533</v>
+        <v>-0.516559039609646</v>
       </c>
       <c r="C200">
-        <v>0.258272649444029</v>
+        <v>0.84537387251527696</v>
       </c>
       <c r="D200">
-        <v>0.69420275497985195</v>
+        <v>0.73374280752255305</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="B201">
-        <v>-0.651550866497138</v>
+        <v>-0.51697952346865805</v>
       </c>
       <c r="C201">
-        <v>0.59369472600445095</v>
+        <v>0.80443968852255698</v>
       </c>
       <c r="D201">
-        <v>0.692682052306135</v>
+        <v>0.51702282419575896</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="B202">
-        <v>-0.73852701833229895</v>
+        <v>-0.51904788733211304</v>
       </c>
       <c r="C202">
-        <v>0.68091753381576603</v>
+        <v>0.73895781717384001</v>
       </c>
       <c r="D202">
-        <v>0.69004434433717898</v>
+        <v>0.71008074246906705</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="B203">
-        <v>-0.61204434104458905</v>
+        <v>-0.51951131522583605</v>
       </c>
       <c r="C203">
-        <v>0.84534661814968504</v>
+        <v>0.62620482718130199</v>
       </c>
       <c r="D203">
-        <v>0.68779639007809301</v>
+        <v>0.61552430640826705</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="B204">
-        <v>-0.54909608493095496</v>
+        <v>-0.52018863271305305</v>
       </c>
       <c r="C204">
-        <v>0.78716193201317797</v>
+        <v>0.76159591516886604</v>
       </c>
       <c r="D204">
-        <v>0.68506915530875401</v>
+        <v>0.53423261238234798</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>337</v>
+        <v>69</v>
       </c>
       <c r="B205">
-        <v>-0.66515600589646595</v>
+        <v>-0.52176148818553603</v>
       </c>
       <c r="C205">
-        <v>0.51484586276625799</v>
+        <v>0.70411370290048703</v>
       </c>
       <c r="D205">
-        <v>0.682075843578275</v>
+        <v>0.78011085468799102</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B206">
-        <v>-0.57299288047379704</v>
+        <v>-0.52338799895579002</v>
       </c>
       <c r="C206">
-        <v>0.77277275272670298</v>
+        <v>0.47962611236597902</v>
       </c>
       <c r="D206">
-        <v>0.68151501189736796</v>
+        <v>0.81543781729495302</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B207">
-        <v>-0.73176500724367699</v>
+        <v>-0.52484036202512696</v>
       </c>
       <c r="C207">
-        <v>0.69850818539821002</v>
+        <v>0.69946398157353595</v>
       </c>
       <c r="D207">
-        <v>0.68002864622974002</v>
+        <v>0.74523864310683496</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="B208">
-        <v>-0.66725547069121205</v>
+        <v>-0.52560459245964497</v>
       </c>
       <c r="C208">
-        <v>0.68854036476469704</v>
+        <v>0.90933645134749297</v>
       </c>
       <c r="D208">
-        <v>0.679666357567005</v>
+        <v>0.67947553245154901</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B209">
-        <v>-0.52560459245964497</v>
+        <v>-0.52643808254964497</v>
       </c>
       <c r="C209">
-        <v>0.90933645134749297</v>
+        <v>0.79852864826147296</v>
       </c>
       <c r="D209">
-        <v>0.67947553245154901</v>
+        <v>0.773724262424755</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="B210">
-        <v>-0.64958111753582304</v>
+        <v>-0.526685661253668</v>
       </c>
       <c r="C210">
-        <v>0.533666785706022</v>
+        <v>0.75769901716709598</v>
       </c>
       <c r="D210">
-        <v>0.67895690472554104</v>
+        <v>0.60345696966549001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="B211">
-        <v>-0.55410074262562603</v>
+        <v>-0.52969103459371203</v>
       </c>
       <c r="C211">
-        <v>0.661951870915927</v>
+        <v>0.62312643491724196</v>
       </c>
       <c r="D211">
-        <v>0.67730698407428003</v>
+        <v>0.58187924020262205</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="B212">
-        <v>-0.70635078095418902</v>
+        <v>-0.53148609200383701</v>
       </c>
       <c r="C212">
-        <v>0.71133958018826404</v>
+        <v>0.58607669648244598</v>
       </c>
       <c r="D212">
-        <v>0.67706457543211296</v>
+        <v>0.55219735244068702</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="B213">
-        <v>-0.68329902542251597</v>
+        <v>-0.53317236541670399</v>
       </c>
       <c r="C213">
-        <v>0.728316827923017</v>
+        <v>0.63731730064543402</v>
       </c>
       <c r="D213">
-        <v>0.67611248448586803</v>
+        <v>0.59316150630735498</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="B214">
-        <v>-0.55674792709482401</v>
+        <v>-0.54117482122428695</v>
       </c>
       <c r="C214">
-        <v>0.91504427976652403</v>
+        <v>0.55454017280747303</v>
       </c>
       <c r="D214">
-        <v>0.67435959793901801</v>
+        <v>0.71112318166432398</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>381</v>
+        <v>284</v>
       </c>
       <c r="B215">
-        <v>-0.67205666786694096</v>
+        <v>-0.54214927868664298</v>
       </c>
       <c r="C215">
-        <v>0.37530160636710302</v>
+        <v>0.39707557987192699</v>
       </c>
       <c r="D215">
-        <v>0.67377255638403399</v>
+        <v>0.77038011025229802</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>328</v>
+        <v>183</v>
       </c>
       <c r="B216">
-        <v>-0.76704213063268201</v>
+        <v>-0.54496770674321304</v>
       </c>
       <c r="C216">
-        <v>0.58401995296936804</v>
+        <v>0.78963996931798996</v>
       </c>
       <c r="D216">
-        <v>0.67372136821465201</v>
+        <v>0.565576543670117</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="B217">
-        <v>-0.59917352420623604</v>
+        <v>-0.54518721269160197</v>
       </c>
       <c r="C217">
-        <v>0.84069902533025997</v>
+        <v>0.49551019332112201</v>
       </c>
       <c r="D217">
-        <v>0.67321582546198799</v>
+        <v>0.80751799148498604</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="B218">
-        <v>-0.73420132670125304</v>
+        <v>-0.54909608493095496</v>
       </c>
       <c r="C218">
-        <v>0.73069686056895899</v>
+        <v>0.78716193201317797</v>
       </c>
       <c r="D218">
-        <v>0.67217883037821802</v>
+        <v>0.68506915530875401</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="B219">
-        <v>-0.61649523950597995</v>
+        <v>-0.55410074262562603</v>
       </c>
       <c r="C219">
-        <v>0.46521493506102701</v>
+        <v>0.661951870915927</v>
       </c>
       <c r="D219">
-        <v>0.67169848515896102</v>
+        <v>0.67730698407428003</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B220">
-        <v>-0.55544270465052603</v>
+        <v>-0.55488890636413302</v>
       </c>
       <c r="C220">
-        <v>0.78612300952249503</v>
+        <v>0.78619407374406503</v>
       </c>
       <c r="D220">
-        <v>0.66632218626785999</v>
+        <v>0.696022664737728</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B221">
-        <v>-0.56567077871375704</v>
+        <v>-0.55544270465052603</v>
       </c>
       <c r="C221">
-        <v>0.77958887449119996</v>
+        <v>0.78612300952249503</v>
       </c>
       <c r="D221">
-        <v>0.66442810198805702</v>
+        <v>0.66632218626785999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="B222">
-        <v>-0.74172904340554802</v>
+        <v>-0.55674792709482401</v>
       </c>
       <c r="C222">
-        <v>0.64106686842178695</v>
+        <v>0.91504427976652403</v>
       </c>
       <c r="D222">
-        <v>0.66356060729786204</v>
+        <v>0.67435959793901801</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B223">
-        <v>-0.62888849817796999</v>
+        <v>-0.55856034793823395</v>
       </c>
       <c r="C223">
-        <v>0.86279155789849005</v>
+        <v>0.80119949487229003</v>
       </c>
       <c r="D223">
-        <v>0.66262343102804999</v>
+        <v>0.63767491091522699</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="B224">
-        <v>-0.67231685494503601</v>
+        <v>-0.55977315947230699</v>
       </c>
       <c r="C224">
-        <v>0.56541160047630201</v>
+        <v>0.83537152695314898</v>
       </c>
       <c r="D224">
-        <v>0.66201720186550195</v>
+        <v>0.71975607547628295</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B225">
-        <v>-0.68356795586734798</v>
+        <v>-0.55980031193170199</v>
       </c>
       <c r="C225">
-        <v>0.71738099645922104</v>
+        <v>0.86237115405263798</v>
       </c>
       <c r="D225">
-        <v>0.66119851218266401</v>
+        <v>0.65671669471344896</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="B226">
-        <v>-0.70988938264048496</v>
+        <v>-0.56029854120665701</v>
       </c>
       <c r="C226">
-        <v>0.66194336515156305</v>
+        <v>0.77207649218678398</v>
       </c>
       <c r="D226">
-        <v>0.66007501267826096</v>
+        <v>0.73768661286955794</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="B227">
-        <v>-0.50657192840552001</v>
+        <v>-0.56255162606076503</v>
       </c>
       <c r="C227">
-        <v>0.59447414791959596</v>
+        <v>0.317807487490114</v>
       </c>
       <c r="D227">
-        <v>0.65994505571834094</v>
+        <v>0.72355499825355496</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="B228">
-        <v>-0.55980031193170199</v>
+        <v>-0.56497749167463795</v>
       </c>
       <c r="C228">
-        <v>0.86237115405263798</v>
+        <v>0.48407297732983101</v>
       </c>
       <c r="D228">
-        <v>0.65671669471344896</v>
+        <v>0.718795511021325</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B229">
-        <v>-0.69569568795792402</v>
+        <v>-0.56567077871375704</v>
       </c>
       <c r="C229">
-        <v>0.70456250357786199</v>
+        <v>0.77958887449119996</v>
       </c>
       <c r="D229">
-        <v>0.65593886071460095</v>
+        <v>0.66442810198805702</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="B230">
-        <v>-0.50806975318043301</v>
+        <v>-0.56624580813578596</v>
       </c>
       <c r="C230">
-        <v>0.48769568025181198</v>
+        <v>0.57774792694310695</v>
       </c>
       <c r="D230">
-        <v>0.65570751568338503</v>
+        <v>0.654513181001801</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="B231">
-        <v>-0.48953440725069303</v>
+        <v>-0.569465473883768</v>
       </c>
       <c r="C231">
-        <v>0.722358809205217</v>
+        <v>0.67733698162501998</v>
       </c>
       <c r="D231">
-        <v>0.65545718801212105</v>
+        <v>0.86921749798816195</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="B232">
-        <v>-0.56624580813578596</v>
+        <v>-0.570233389127768</v>
       </c>
       <c r="C232">
-        <v>0.57774792694310695</v>
+        <v>0.84826798561797301</v>
       </c>
       <c r="D232">
-        <v>0.654513181001801</v>
+        <v>0.58204622914333204</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="B233">
-        <v>-0.50800563180307101</v>
+        <v>-0.57124637809009104</v>
       </c>
       <c r="C233">
-        <v>0.66448268816782896</v>
+        <v>0.57339810772224797</v>
       </c>
       <c r="D233">
-        <v>0.65337128685396395</v>
+        <v>0.75544708708826303</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="B234">
-        <v>-0.71535797148031199</v>
+        <v>-0.57299288047379704</v>
       </c>
       <c r="C234">
-        <v>0.70907435680498598</v>
+        <v>0.77277275272670298</v>
       </c>
       <c r="D234">
-        <v>0.65232659706167595</v>
+        <v>0.68151501189736796</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="B235">
-        <v>-0.38987371941556798</v>
+        <v>-0.574245774007764</v>
       </c>
       <c r="C235">
-        <v>0.56673041001477398</v>
+        <v>0.34978170759404298</v>
       </c>
       <c r="D235">
-        <v>0.64844003477099499</v>
+        <v>0.72571903802079696</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="B236">
-        <v>-0.63592144081595303</v>
+        <v>-0.57574953832155895</v>
       </c>
       <c r="C236">
-        <v>0.49485260104766499</v>
+        <v>0.71505341069005901</v>
       </c>
       <c r="D236">
-        <v>0.64736368698702496</v>
+        <v>0.79296558709674103</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="B237">
-        <v>-0.72372774125953898</v>
+        <v>-0.57716641080413</v>
       </c>
       <c r="C237">
-        <v>0.39477068625224998</v>
+        <v>0.85819080696325101</v>
       </c>
       <c r="D237">
-        <v>0.64664890313093504</v>
+        <v>0.71780929542748195</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B238">
-        <v>-0.61848926722693898</v>
+        <v>-0.57863893174866199</v>
       </c>
       <c r="C238">
-        <v>0.84094776605267296</v>
+        <v>0.87176780339245596</v>
       </c>
       <c r="D238">
-        <v>0.64521786377261303</v>
+        <v>0.64254542292355799</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B239">
-        <v>-0.50110798386720001</v>
+        <v>-0.57904481320228995</v>
       </c>
       <c r="C239">
-        <v>0.88073211781202898</v>
+        <v>0.54237722288484602</v>
       </c>
       <c r="D239">
-        <v>0.64357226321008998</v>
+        <v>0.76591588029009205</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B240">
-        <v>-0.57863893174866199</v>
+        <v>-0.58132342585521601</v>
       </c>
       <c r="C240">
-        <v>0.87176780339245596</v>
+        <v>0.90856680708769999</v>
       </c>
       <c r="D240">
-        <v>0.64254542292355799</v>
+        <v>0.72742882263609299</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B241">
-        <v>-0.51500037496376705</v>
+        <v>-0.58311624160268605</v>
       </c>
       <c r="C241">
-        <v>0.697630147546489</v>
+        <v>0.50383453410392398</v>
       </c>
       <c r="D241">
-        <v>0.64214665488517597</v>
+        <v>0.83315678142037497</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B242">
-        <v>-0.591532172840461</v>
+        <v>-0.58335181305727501</v>
       </c>
       <c r="C242">
-        <v>0.91795271188234595</v>
+        <v>0.63694170973517805</v>
       </c>
       <c r="D242">
-        <v>0.63852084165384004</v>
+        <v>0.63774042825457</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="B243">
-        <v>-0.58335181305727501</v>
+        <v>-0.58447562238363304</v>
       </c>
       <c r="C243">
-        <v>0.63694170973517805</v>
+        <v>0.43790291645455398</v>
       </c>
       <c r="D243">
-        <v>0.63774042825457</v>
+        <v>0.74152048458809705</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="B244">
-        <v>-0.55856034793823395</v>
+        <v>-0.58500619778565599</v>
       </c>
       <c r="C244">
-        <v>0.80119949487229003</v>
+        <v>0.44131357273551303</v>
       </c>
       <c r="D244">
-        <v>0.63767491091522699</v>
+        <v>0.80169443308534205</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="B245">
-        <v>-0.47705233433987598</v>
+        <v>-0.58588244225399499</v>
       </c>
       <c r="C245">
-        <v>0.83590303925035203</v>
+        <v>0.60800042396482801</v>
       </c>
       <c r="D245">
-        <v>0.63258999391986104</v>
+        <v>0.71511083188317004</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="B246">
-        <v>-0.62751079684271704</v>
+        <v>-0.58658080169281201</v>
       </c>
       <c r="C246">
-        <v>0.86802381633876302</v>
+        <v>0.58324861117536198</v>
       </c>
       <c r="D246">
-        <v>0.62490648885210298</v>
+        <v>0.54303195547985506</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="B247">
-        <v>-0.33641882122160099</v>
+        <v>-0.58658908767540296</v>
       </c>
       <c r="C247">
-        <v>0.63063114755879002</v>
+        <v>0.473953448159598</v>
       </c>
       <c r="D247">
-        <v>0.62364952231216297</v>
+        <v>0.71217306335825503</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="B248">
-        <v>-0.490428746247209</v>
+        <v>-0.58943258610521598</v>
       </c>
       <c r="C248">
-        <v>0.471188741103367</v>
+        <v>0.82968259325194704</v>
       </c>
       <c r="D248">
-        <v>0.62268611411693597</v>
+        <v>0.70287471586438699</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="B249">
-        <v>-0.29119147720313099</v>
+        <v>-0.58968694206310601</v>
       </c>
       <c r="C249">
-        <v>0.68884663456579498</v>
+        <v>0.68237335757255801</v>
       </c>
       <c r="D249">
-        <v>0.62018765485559302</v>
+        <v>0.84579588592833799</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="B250">
-        <v>-0.51951131522583605</v>
+        <v>-0.591532172840461</v>
       </c>
       <c r="C250">
-        <v>0.62620482718130199</v>
+        <v>0.91795271188234595</v>
       </c>
       <c r="D250">
-        <v>0.61552430640826705</v>
+        <v>0.63852084165384004</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="B251">
-        <v>-0.38851977991742098</v>
+        <v>-0.59645892737122197</v>
       </c>
       <c r="C251">
-        <v>0.56262008333107905</v>
+        <v>0.48368622001642703</v>
       </c>
       <c r="D251">
-        <v>0.61416178202393301</v>
+        <v>0.87019318054490402</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="B252">
-        <v>-0.49165960301008499</v>
+        <v>-0.59676458269118704</v>
       </c>
       <c r="C252">
-        <v>0.73895946593741102</v>
+        <v>0.91235429364402099</v>
       </c>
       <c r="D252">
-        <v>0.60491659194999003</v>
+        <v>0.79601523928175799</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="B253">
-        <v>-0.526685661253668</v>
+        <v>-0.59917352420623604</v>
       </c>
       <c r="C253">
-        <v>0.75769901716709598</v>
+        <v>0.84069902533025997</v>
       </c>
       <c r="D253">
-        <v>0.60345696966549001</v>
+        <v>0.67321582546198799</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>380</v>
       </c>
       <c r="B254">
-        <v>-0.40825172701675899</v>
+        <v>-0.60350192376873502</v>
       </c>
       <c r="C254">
-        <v>0.80333440443992099</v>
+        <v>0.33788550862866601</v>
       </c>
       <c r="D254">
-        <v>0.60287557143181703</v>
+        <v>0.73263915222875198</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="B255">
-        <v>-0.64943660009519899</v>
+        <v>-0.606802588284996</v>
       </c>
       <c r="C255">
-        <v>0.78756499946330605</v>
+        <v>0.38823057276999601</v>
       </c>
       <c r="D255">
-        <v>0.601828778735499</v>
+        <v>0.81625834871052705</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="B256">
-        <v>-0.46111927487614102</v>
+        <v>-0.61204434104458905</v>
       </c>
       <c r="C256">
-        <v>0.78664689158752199</v>
+        <v>0.84534661814968504</v>
       </c>
       <c r="D256">
-        <v>0.60128828538365497</v>
+        <v>0.68779639007809301</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>366</v>
+        <v>245</v>
       </c>
       <c r="B257">
-        <v>-0.32649525595397999</v>
+        <v>-0.61649523950597995</v>
       </c>
       <c r="C257">
-        <v>0.62150070897237697</v>
+        <v>0.46521493506102701</v>
       </c>
       <c r="D257">
-        <v>0.59934095200153104</v>
+        <v>0.67169848515896102</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="B258">
-        <v>-0.390647762428531</v>
+        <v>-0.61848926722693898</v>
       </c>
       <c r="C258">
-        <v>0.68663029382766105</v>
+        <v>0.84094776605267296</v>
       </c>
       <c r="D258">
-        <v>0.59707885488388002</v>
+        <v>0.64521786377261303</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="B259">
-        <v>-0.53317236541670399</v>
+        <v>-0.61886833482116699</v>
       </c>
       <c r="C259">
-        <v>0.63731730064543402</v>
+        <v>0.61141243987825999</v>
       </c>
       <c r="D259">
-        <v>0.59316150630735498</v>
+        <v>0.77068717051193203</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>395</v>
+        <v>88</v>
       </c>
       <c r="B260">
-        <v>-0.49740799877431202</v>
+        <v>-0.619335566990315</v>
       </c>
       <c r="C260">
-        <v>0.32114406569581599</v>
+        <v>0.45731564148253501</v>
       </c>
       <c r="D260">
-        <v>0.58246060764123198</v>
+        <v>0.81202878140477297</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B261">
-        <v>-0.570233389127768</v>
+        <v>-0.619442403229711</v>
       </c>
       <c r="C261">
-        <v>0.84826798561797301</v>
+        <v>0.52316542909924502</v>
       </c>
       <c r="D261">
-        <v>0.58204622914333204</v>
+        <v>0.69660448906291905</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="B262">
-        <v>-0.52969103459371203</v>
+        <v>-0.62263722886518802</v>
       </c>
       <c r="C262">
-        <v>0.62312643491724196</v>
+        <v>0.57628332196204801</v>
       </c>
       <c r="D262">
-        <v>0.58187924020262205</v>
+        <v>0.74178782281162903</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="B263">
-        <v>-0.47572030997847398</v>
+        <v>-0.62274662029769801</v>
       </c>
       <c r="C263">
-        <v>0.69760466824595602</v>
+        <v>0.454738655835417</v>
       </c>
       <c r="D263">
-        <v>0.58035540309991596</v>
+        <v>0.87070327852569096</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B264">
-        <v>-0.156608929064429</v>
+        <v>-0.62372398586500399</v>
       </c>
       <c r="C264">
-        <v>0.54769888637979003</v>
+        <v>0.36869161710192899</v>
       </c>
       <c r="D264">
-        <v>0.57804153483335097</v>
+        <v>0.82271952610676802</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="B265">
-        <v>-0.49039670778900202</v>
+        <v>-0.62456164389237201</v>
       </c>
       <c r="C265">
-        <v>0.73776165899203106</v>
+        <v>0.894124059512307</v>
       </c>
       <c r="D265">
-        <v>0.57620621564425301</v>
+        <v>0.76741216866467399</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>350</v>
+        <v>13</v>
       </c>
       <c r="B266">
-        <v>-0.42037524876910398</v>
+        <v>-0.62558404194141504</v>
       </c>
       <c r="C266">
-        <v>0.50703429564282498</v>
+        <v>0.68584742669103205</v>
       </c>
       <c r="D266">
-        <v>0.57418010520982399</v>
+        <v>0.87138181849045404</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>382</v>
+        <v>90</v>
       </c>
       <c r="B267">
-        <v>-0.49046945732552899</v>
+        <v>-0.62667369225890002</v>
       </c>
       <c r="C267">
-        <v>0.476653212037358</v>
+        <v>0.49444317890877798</v>
       </c>
       <c r="D267">
-        <v>0.57070509484447096</v>
+        <v>0.84723230235453095</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>377</v>
+        <v>154</v>
       </c>
       <c r="B268">
-        <v>-0.497011491448136</v>
+        <v>-0.62691264815201198</v>
       </c>
       <c r="C268">
-        <v>0.38923010081864301</v>
+        <v>0.65641895298911701</v>
       </c>
       <c r="D268">
-        <v>0.57022364385361901</v>
+        <v>0.76690033389499801</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B269">
-        <v>-0.443986655688554</v>
+        <v>-0.62727151847753804</v>
       </c>
       <c r="C269">
-        <v>0.86688218327326405</v>
+        <v>0.83253844271405597</v>
       </c>
       <c r="D269">
-        <v>0.57004265321185998</v>
+        <v>0.79947733924432896</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="B270">
-        <v>-0.66624254951031103</v>
+        <v>-0.62751079684271704</v>
       </c>
       <c r="C270">
-        <v>0.60223255338599901</v>
+        <v>0.86802381633876302</v>
       </c>
       <c r="D270">
-        <v>0.56887461714347898</v>
+        <v>0.62490648885210298</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B271">
-        <v>-0.34999003634361497</v>
+        <v>-0.62771152547460995</v>
       </c>
       <c r="C271">
-        <v>0.85777935017038398</v>
+        <v>0.67586459842302304</v>
       </c>
       <c r="D271">
-        <v>0.56835260966901802</v>
+        <v>0.84300203772830096</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="B272">
-        <v>-0.26808472237848702</v>
+        <v>-0.62779430404679404</v>
       </c>
       <c r="C272">
-        <v>0.74044948971692304</v>
+        <v>0.49613124852658702</v>
       </c>
       <c r="D272">
-        <v>0.56628267978354596</v>
+        <v>0.76981956052156497</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="B273">
-        <v>-0.54496770674321304</v>
+        <v>-0.628763380166248</v>
       </c>
       <c r="C273">
-        <v>0.78963996931798996</v>
+        <v>0.84048581471302897</v>
       </c>
       <c r="D273">
-        <v>0.565576543670117</v>
+        <v>0.83233978070096104</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B274">
-        <v>-0.45326912349785897</v>
+        <v>-0.62888849817796999</v>
       </c>
       <c r="C274">
-        <v>0.89934988764622004</v>
+        <v>0.86279155789849005</v>
       </c>
       <c r="D274">
-        <v>0.55566247387795098</v>
+        <v>0.66262343102804999</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>331</v>
+        <v>57</v>
       </c>
       <c r="B275">
-        <v>-0.404490225776858</v>
+        <v>-0.62952114018651095</v>
       </c>
       <c r="C275">
-        <v>0.62943793878030196</v>
+        <v>0.61907144142751303</v>
       </c>
       <c r="D275">
-        <v>0.55352177376434997</v>
+        <v>0.79609800427208199</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="B276">
-        <v>-0.53148609200383701</v>
+        <v>-0.63027177788246502</v>
       </c>
       <c r="C276">
-        <v>0.58607669648244598</v>
+        <v>0.46408484077774897</v>
       </c>
       <c r="D276">
-        <v>0.55219735244068702</v>
+        <v>0.87177954102127497</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="B277">
-        <v>-0.43175774192687399</v>
+        <v>-0.630587478349385</v>
       </c>
       <c r="C277">
-        <v>0.87143813012662297</v>
+        <v>0.46951718124752001</v>
       </c>
       <c r="D277">
-        <v>0.55126621920821595</v>
+        <v>0.85779080114499895</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>398</v>
+        <v>191</v>
       </c>
       <c r="B278">
-        <v>-0.58658080169281201</v>
+        <v>-0.63461733823728805</v>
       </c>
       <c r="C278">
-        <v>0.58324861117536198</v>
+        <v>0.44748333880040603</v>
       </c>
       <c r="D278">
-        <v>0.54303195547985506</v>
+        <v>0.86077588899006796</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="B279">
-        <v>-0.42109411804789498</v>
+        <v>-0.63592144081595303</v>
       </c>
       <c r="C279">
-        <v>0.82659390009243505</v>
+        <v>0.49485260104766499</v>
       </c>
       <c r="D279">
-        <v>0.537303039756165</v>
+        <v>0.64736368698702496</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>344</v>
+        <v>95</v>
       </c>
       <c r="B280">
-        <v>-0.52018863271305305</v>
+        <v>-0.63663271788228903</v>
       </c>
       <c r="C280">
-        <v>0.76159591516886604</v>
+        <v>0.60064831795700002</v>
       </c>
       <c r="D280">
-        <v>0.53423261238234798</v>
+        <v>0.79544169613349902</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="B281">
-        <v>-0.35298487700355802</v>
+        <v>-0.63769259563779801</v>
       </c>
       <c r="C281">
-        <v>0.84801864381210401</v>
+        <v>0.34996614235064</v>
       </c>
       <c r="D281">
-        <v>0.533574019764534</v>
+        <v>0.84535038864968204</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="B282">
-        <v>-0.47517310816696201</v>
+        <v>-0.63847508926499297</v>
       </c>
       <c r="C282">
-        <v>0.836535601353115</v>
+        <v>0.30630659565537299</v>
       </c>
       <c r="D282">
-        <v>0.53228822960468103</v>
+        <v>0.75596446028913</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>361</v>
+        <v>87</v>
       </c>
       <c r="B283">
-        <v>-0.45694522953767602</v>
+        <v>-0.63893813099373697</v>
       </c>
       <c r="C283">
-        <v>0.71951298382031403</v>
+        <v>0.52279374531849598</v>
       </c>
       <c r="D283">
-        <v>0.529133660937529</v>
+        <v>0.87862032503572096</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="B284">
-        <v>-0.44491383335941198</v>
+        <v>-0.63938958021507197</v>
       </c>
       <c r="C284">
-        <v>0.53439814598434499</v>
+        <v>0.32726644936062999</v>
       </c>
       <c r="D284">
-        <v>0.52835153066307095</v>
+        <v>0.80827107478357396</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="B285">
-        <v>-0.293213433597386</v>
+        <v>-0.641658222631449</v>
       </c>
       <c r="C285">
-        <v>0.75855798389532503</v>
+        <v>0.92669096682174301</v>
       </c>
       <c r="D285">
-        <v>0.52072737398222801</v>
+        <v>0.76299208075091296</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="B286">
-        <v>-0.33698840787018097</v>
+        <v>-0.64483434683062202</v>
       </c>
       <c r="C286">
-        <v>0.77154145441361899</v>
+        <v>0.71273854169041295</v>
       </c>
       <c r="D286">
-        <v>0.51994589352409604</v>
+        <v>0.80248605488357505</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="B287">
-        <v>-0.51697952346865805</v>
+        <v>-0.64718759359463696</v>
       </c>
       <c r="C287">
-        <v>0.80443968852255698</v>
+        <v>0.59388507753311304</v>
       </c>
       <c r="D287">
-        <v>0.51702282419575896</v>
+        <v>0.88737360631115503</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="B288">
-        <v>-0.41297205885025601</v>
+        <v>-0.64810904014965698</v>
       </c>
       <c r="C288">
-        <v>0.73115402944832597</v>
+        <v>0.54588394208837199</v>
       </c>
       <c r="D288">
-        <v>0.51064712956599601</v>
+        <v>0.815273841151269</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B289">
-        <v>-0.40954024533286698</v>
+        <v>-0.64943660009519899</v>
       </c>
       <c r="C289">
-        <v>0.69539452470563501</v>
+        <v>0.78756499946330605</v>
       </c>
       <c r="D289">
-        <v>0.505714364295479</v>
+        <v>0.601828778735499</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B290">
-        <v>-0.37275083671034098</v>
+        <v>-0.64958111753582304</v>
       </c>
       <c r="C290">
-        <v>0.61699319066200597</v>
+        <v>0.533666785706022</v>
       </c>
       <c r="D290">
-        <v>0.50481076029972505</v>
+        <v>0.67895690472554104</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B291">
-        <v>-0.43307795240249303</v>
+        <v>-0.64966973718244303</v>
       </c>
       <c r="C291">
-        <v>0.82088115816198304</v>
+        <v>0.69114927025113204</v>
       </c>
       <c r="D291">
-        <v>0.50464929483152599</v>
+        <v>0.79488032665271102</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="B292">
-        <v>-0.40380016077490199</v>
+        <v>-0.65030158572206698</v>
       </c>
       <c r="C292">
-        <v>0.53813269238501404</v>
+        <v>0.77019601759929901</v>
       </c>
       <c r="D292">
-        <v>0.501661993460227</v>
+        <v>0.69436993343909803</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B293">
-        <v>-0.36415237667184103</v>
+        <v>-0.651550866497138</v>
       </c>
       <c r="C293">
-        <v>0.73255612445749796</v>
+        <v>0.59369472600445095</v>
       </c>
       <c r="D293">
-        <v>0.49799583936827602</v>
+        <v>0.692682052306135</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="B294">
-        <v>-0.447501192507267</v>
+        <v>-0.65269508788027097</v>
       </c>
       <c r="C294">
-        <v>0.55550827960878801</v>
+        <v>0.47726831841643202</v>
       </c>
       <c r="D294">
-        <v>0.49597858602946598</v>
+        <v>0.81407721746438999</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="B295">
-        <v>-0.44220976732975698</v>
+        <v>-0.65458516422246704</v>
       </c>
       <c r="C295">
-        <v>0.74753343282781304</v>
+        <v>0.44213680525935001</v>
       </c>
       <c r="D295">
-        <v>0.486966420042941</v>
+        <v>0.851748582529814</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="B296">
-        <v>-0.367601834426459</v>
+        <v>-0.65697987144671299</v>
       </c>
       <c r="C296">
-        <v>0.53059865375299597</v>
+        <v>0.35160806966024899</v>
       </c>
       <c r="D296">
-        <v>0.48484987963528198</v>
+        <v>0.81119054389575396</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="B297">
-        <v>-0.39415490605577502</v>
+        <v>-0.65774064088804796</v>
       </c>
       <c r="C297">
-        <v>0.49637641209540401</v>
+        <v>0.36926674547001798</v>
       </c>
       <c r="D297">
-        <v>0.47517204066552798</v>
+        <v>0.83734445376794198</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="B298">
-        <v>-0.46012875159056899</v>
+        <v>-0.65821753588183096</v>
       </c>
       <c r="C298">
-        <v>0.60914882891586297</v>
+        <v>0.63700488094424002</v>
       </c>
       <c r="D298">
-        <v>0.46607306028298301</v>
+        <v>0.82252581817319503</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="B299">
-        <v>-0.37492608313460501</v>
+        <v>-0.65873888804958003</v>
       </c>
       <c r="C299">
-        <v>0.45492636821685301</v>
+        <v>0.74221853979148</v>
       </c>
       <c r="D299">
-        <v>0.45746915636273899</v>
+        <v>0.89792582157335499</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B300">
-        <v>-0.43205643357824097</v>
+        <v>-0.65893806561141699</v>
       </c>
       <c r="C300">
-        <v>0.65800364502978004</v>
+        <v>0.39309226499365102</v>
       </c>
       <c r="D300">
-        <v>0.45542556349373597</v>
+        <v>0.80929189328930895</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="B301">
-        <v>-0.44887852767320002</v>
+        <v>-0.65973079644879995</v>
       </c>
       <c r="C301">
-        <v>0.739093847617323</v>
+        <v>0.67175701941703203</v>
       </c>
       <c r="D301">
-        <v>0.454342328000996</v>
+        <v>0.79574754299487804</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>362</v>
+        <v>52</v>
       </c>
       <c r="B302">
-        <v>-0.19672781246991</v>
+        <v>-0.66130848158801003</v>
       </c>
       <c r="C302">
-        <v>0.73522276969102796</v>
+        <v>0.579198662711079</v>
       </c>
       <c r="D302">
-        <v>0.41923449839214599</v>
+        <v>0.82467377186000401</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B303">
-        <v>-0.210051889352288</v>
+        <v>-0.66515600589646595</v>
       </c>
       <c r="C303">
-        <v>0.73274738452452204</v>
+        <v>0.51484586276625799</v>
       </c>
       <c r="D303">
-        <v>0.40796795347353998</v>
+        <v>0.682075843578275</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="B304">
-        <v>-0.446786621537133</v>
+        <v>-0.66624254951031103</v>
       </c>
       <c r="C304">
-        <v>0.75409270707063203</v>
+        <v>0.60223255338599901</v>
       </c>
       <c r="D304">
-        <v>0.40609498607690703</v>
+        <v>0.56887461714347898</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="B305">
-        <v>-0.108219819377814</v>
+        <v>-0.66725547069121205</v>
       </c>
       <c r="C305">
-        <v>0.78607889305549505</v>
+        <v>0.68854036476469704</v>
       </c>
       <c r="D305">
-        <v>0.39083593404480699</v>
+        <v>0.679666357567005</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>408</v>
+        <v>161</v>
       </c>
       <c r="B306">
-        <v>2.2642911659143301E-2</v>
+        <v>-0.66748313435879802</v>
       </c>
       <c r="C306">
-        <v>0.38015004519163997</v>
+        <v>0.49193030643005597</v>
       </c>
       <c r="D306">
-        <v>0.38559372808633402</v>
+        <v>0.84707930910468898</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B307">
-        <v>-0.21282240284346199</v>
+        <v>-0.66773629134179402</v>
       </c>
       <c r="C307">
-        <v>0.81501963197724503</v>
+        <v>0.32625796610332303</v>
       </c>
       <c r="D307">
-        <v>0.37894320492280897</v>
+        <v>0.78727306651136997</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>397</v>
+        <v>5</v>
       </c>
       <c r="B308">
-        <v>-0.192914891096299</v>
+        <v>-0.67001707971011004</v>
       </c>
       <c r="C308">
-        <v>0.73074559881805101</v>
+        <v>0.93318485999308598</v>
       </c>
       <c r="D308">
-        <v>0.36546299742636501</v>
+        <v>0.74195849114075296</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>413</v>
+        <v>117</v>
       </c>
       <c r="B309">
-        <v>-0.314539416211707</v>
+        <v>-0.67074520228909895</v>
       </c>
       <c r="C309">
-        <v>0.66190658341276198</v>
+        <v>0.60603095577881705</v>
       </c>
       <c r="D309">
-        <v>0.36187212125319501</v>
+        <v>0.800957653114027</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B310">
-        <v>-0.34162202922467499</v>
+        <v>-0.67205666786694096</v>
       </c>
       <c r="C310">
-        <v>0.42851665940891598</v>
+        <v>0.37530160636710302</v>
       </c>
       <c r="D310">
-        <v>0.35793026448969401</v>
+        <v>0.67377255638403399</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="B311">
-        <v>-3.8844729323360402E-2</v>
+        <v>-0.67231685494503601</v>
       </c>
       <c r="C311">
-        <v>0.724521129615048</v>
+        <v>0.56541160047630201</v>
       </c>
       <c r="D311">
-        <v>0.35483621055507403</v>
+        <v>0.66201720186550195</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>421</v>
+        <v>36</v>
       </c>
       <c r="B312">
-        <v>-0.31109383614299302</v>
+        <v>-0.67233279764225895</v>
       </c>
       <c r="C312">
-        <v>0.61002371226591001</v>
+        <v>0.54165273958624405</v>
       </c>
       <c r="D312">
-        <v>0.346491469035768</v>
+        <v>0.93335076740676504</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="B313">
-        <v>-0.22457422255805001</v>
+        <v>-0.67311453403913402</v>
       </c>
       <c r="C313">
-        <v>0.64773399357016304</v>
+        <v>0.80072869940830704</v>
       </c>
       <c r="D313">
-        <v>0.33148046321973601</v>
+        <v>0.79685627420284799</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>429</v>
+        <v>166</v>
       </c>
       <c r="B314">
-        <v>-1.30185540448907E-2</v>
+        <v>-0.67441557433289601</v>
       </c>
       <c r="C314">
-        <v>0.472821366515981</v>
+        <v>0.47813139841651497</v>
       </c>
       <c r="D314">
-        <v>0.32392347432850199</v>
+        <v>0.88046050050304003</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>407</v>
+        <v>228</v>
       </c>
       <c r="B315">
-        <v>-0.14386077872231201</v>
+        <v>-0.67536834376294697</v>
       </c>
       <c r="C315">
-        <v>0.71042334709435295</v>
+        <v>0.38542672713081999</v>
       </c>
       <c r="D315">
-        <v>0.31302155270547599</v>
+        <v>0.85965759325077096</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="B316">
-        <v>-0.24016725160602401</v>
+        <v>-0.67639142285684295</v>
       </c>
       <c r="C316">
-        <v>0.71449433316326805</v>
+        <v>0.40474132645599198</v>
       </c>
       <c r="D316">
-        <v>0.30225648384710901</v>
+        <v>0.77144051764102906</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="B317">
-        <v>-0.240600777145629</v>
+        <v>-0.67668332726835401</v>
       </c>
       <c r="C317">
-        <v>0.51368790319116897</v>
+        <v>0.67740435589847603</v>
       </c>
       <c r="D317">
-        <v>0.29893249893013302</v>
+        <v>0.814274625446198</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="B318">
-        <v>-6.2372136996274197E-2</v>
+        <v>-0.67802391049560695</v>
       </c>
       <c r="C318">
-        <v>0.76791143870887801</v>
+        <v>0.43609561442942901</v>
       </c>
       <c r="D318">
-        <v>0.29183517474411402</v>
+        <v>0.88533601442934096</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="B319">
-        <v>-0.33678575395676003</v>
+        <v>-0.67923694684546898</v>
       </c>
       <c r="C319">
-        <v>0.59669788330473705</v>
+        <v>0.30644649856941097</v>
       </c>
       <c r="D319">
-        <v>0.28694341655585798</v>
+        <v>0.79751007290207299</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>430</v>
+        <v>179</v>
       </c>
       <c r="B320">
-        <v>-0.20785153059122</v>
+        <v>-0.68261908784372305</v>
       </c>
       <c r="C320">
-        <v>0.51395864605070096</v>
+        <v>0.60193746074643295</v>
       </c>
       <c r="D320">
-        <v>0.24702536425344501</v>
+        <v>0.75761358363030296</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="B321">
-        <v>6.6919023107959802E-2</v>
+        <v>-0.68329902542251597</v>
       </c>
       <c r="C321">
-        <v>0.61594472548075296</v>
+        <v>0.728316827923017</v>
       </c>
       <c r="D321">
-        <v>0.194834777024156</v>
+        <v>0.67611248448586803</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>427</v>
+        <v>175</v>
       </c>
       <c r="B322">
-        <v>-8.9708317167840196E-3</v>
+        <v>-0.68356795586734798</v>
       </c>
       <c r="C322">
-        <v>-0.44530516755986899</v>
+        <v>0.71738099645922104</v>
       </c>
       <c r="D322">
-        <v>-9.6847849872684202E-2</v>
+        <v>0.66119851218266401</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="B323">
-        <v>0.214387339869271</v>
+        <v>-0.684876287828035</v>
       </c>
       <c r="C323">
-        <v>-0.58408074465785897</v>
+        <v>0.30937101775619502</v>
       </c>
       <c r="D323">
-        <v>-0.296489463764807</v>
+        <v>0.79641888564951802</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>435</v>
+        <v>29</v>
       </c>
       <c r="B324">
-        <v>0.625111550887409</v>
+        <v>-0.68505867973799806</v>
       </c>
       <c r="C324">
-        <v>-0.120003284336915</v>
+        <v>0.58781171937363597</v>
       </c>
       <c r="D324">
-        <v>-0.30337201638719902</v>
+        <v>0.85596590745770196</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="B325">
-        <v>0.52975115031028097</v>
+        <v>-0.68521372941921099</v>
       </c>
       <c r="C325">
-        <v>-0.201998257874729</v>
+        <v>0.435695633264509</v>
       </c>
       <c r="D325">
-        <v>-0.35382678378575999</v>
+        <v>0.73433088724352802</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>434</v>
+        <v>43</v>
       </c>
       <c r="B326">
-        <v>0.741406763082881</v>
+        <v>-0.68867977599665098</v>
       </c>
       <c r="C326">
-        <v>-0.30365402522298801</v>
+        <v>0.67668505710219495</v>
       </c>
       <c r="D326">
-        <v>-0.37772636297101397</v>
+        <v>0.84412794418537396</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>433</v>
+        <v>267</v>
       </c>
       <c r="B327">
-        <v>0.74433122237578497</v>
+        <v>-0.68921696107138397</v>
       </c>
       <c r="C327">
-        <v>-0.11533798805317</v>
+        <v>0.37130538045256101</v>
       </c>
       <c r="D327">
-        <v>-0.40152001863453701</v>
+        <v>0.84654018547012</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>426</v>
+        <v>220</v>
       </c>
       <c r="B328">
-        <v>0.77532568373386501</v>
+        <v>-0.68993295105829799</v>
       </c>
       <c r="C328">
-        <v>-0.24905151681661</v>
+        <v>0.42424605134419802</v>
       </c>
       <c r="D328">
-        <v>-0.42188809642174502</v>
+        <v>0.87674080357259998</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="B329">
-        <v>0.80789824882268102</v>
+        <v>-0.69128794853644704</v>
       </c>
       <c r="C329">
-        <v>-0.32570056567767902</v>
+        <v>0.726840730167989</v>
       </c>
       <c r="D329">
-        <v>-0.43759136189304099</v>
+        <v>0.70753140636703604</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>432</v>
+        <v>226</v>
       </c>
       <c r="B330">
-        <v>0.794050112483905</v>
+        <v>-0.69341533467938699</v>
       </c>
       <c r="C330">
-        <v>-0.19843594981437401</v>
+        <v>0.79083552231301102</v>
       </c>
       <c r="D330">
-        <v>-0.44339862466427499</v>
+        <v>0.71991774707898204</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>401</v>
+        <v>109</v>
       </c>
       <c r="B331">
-        <v>0.76667049099129103</v>
+        <v>-0.69377521993315605</v>
       </c>
       <c r="C331">
-        <v>-0.436727726484539</v>
+        <v>0.73041294424813996</v>
       </c>
       <c r="D331">
-        <v>-0.44974997479722301</v>
+        <v>0.78344652747558396</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>416</v>
+        <v>40</v>
       </c>
       <c r="B332">
-        <v>0.78903580912515003</v>
+        <v>-0.69412865947858005</v>
       </c>
       <c r="C332">
-        <v>-0.30419953485121798</v>
+        <v>0.699638262949971</v>
       </c>
       <c r="D332">
-        <v>-0.45690783016728598</v>
+        <v>0.85801223820111505</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>423</v>
+        <v>150</v>
       </c>
       <c r="B333">
-        <v>0.78576351913069498</v>
+        <v>-0.69427370049749704</v>
       </c>
       <c r="C333">
-        <v>-0.17466057249004099</v>
+        <v>0.71544511545314404</v>
       </c>
       <c r="D333">
-        <v>-0.471480006310319</v>
+        <v>0.74585998708230505</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="B334">
-        <v>0.61053202197876899</v>
+        <v>-0.695149731523521</v>
       </c>
       <c r="C334">
-        <v>-0.36825993702750198</v>
+        <v>0.85522051683556599</v>
       </c>
       <c r="D334">
-        <v>-0.47298570503117499</v>
+        <v>0.73001187009385604</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>425</v>
+        <v>108</v>
       </c>
       <c r="B335">
-        <v>0.82763577174718495</v>
+        <v>-0.69546409514219198</v>
       </c>
       <c r="C335">
-        <v>-0.34952892543596797</v>
+        <v>0.49844870325462698</v>
       </c>
       <c r="D335">
-        <v>-0.48320654869288898</v>
+        <v>0.84695982269540804</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="B336">
-        <v>0.77866285415653202</v>
+        <v>-0.69569568795792402</v>
       </c>
       <c r="C336">
-        <v>-0.15243243412058399</v>
+        <v>0.70456250357786199</v>
       </c>
       <c r="D336">
-        <v>-0.49028813498358298</v>
+        <v>0.65593886071460095</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>422</v>
+        <v>163</v>
       </c>
       <c r="B337">
-        <v>0.85237976606711996</v>
+        <v>-0.69912265631278703</v>
       </c>
       <c r="C337">
-        <v>-0.35709465862628897</v>
+        <v>0.49520730090119702</v>
       </c>
       <c r="D337">
-        <v>-0.499021375634707</v>
+        <v>0.86684273563367897</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="B338">
-        <v>0.69561378440945798</v>
+        <v>-0.69939055766142</v>
       </c>
       <c r="C338">
-        <v>-0.44710116745120798</v>
+        <v>0.45656908195481199</v>
       </c>
       <c r="D338">
-        <v>-0.50796724133725601</v>
+        <v>0.90031858441254198</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>411</v>
+        <v>239</v>
       </c>
       <c r="B339">
-        <v>0.69059654560896899</v>
+        <v>-0.70025811098805302</v>
       </c>
       <c r="C339">
-        <v>-0.26542556999761102</v>
+        <v>0.56520807994376399</v>
       </c>
       <c r="D339">
-        <v>-0.50945031257571205</v>
+        <v>0.73316845486146498</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="B340">
-        <v>0.86286471498683903</v>
+        <v>-0.70027813922540705</v>
       </c>
       <c r="C340">
-        <v>-0.37210528933581999</v>
+        <v>0.52992563168317397</v>
       </c>
       <c r="D340">
-        <v>-0.515088910854965</v>
+        <v>0.92756235806253795</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>418</v>
+        <v>92</v>
       </c>
       <c r="B341">
-        <v>0.87759126320978698</v>
+        <v>-0.70067771027632797</v>
       </c>
       <c r="C341">
-        <v>-0.38046168583059797</v>
+        <v>0.49013669448466601</v>
       </c>
       <c r="D341">
-        <v>-0.53655760867942104</v>
+        <v>0.90128259022288004</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>419</v>
+        <v>246</v>
       </c>
       <c r="B342">
-        <v>0.87860732584332801</v>
+        <v>-0.70426099882570203</v>
       </c>
       <c r="C342">
-        <v>-0.37296816238209102</v>
+        <v>0.425174791405379</v>
       </c>
       <c r="D342">
-        <v>-0.53691926101935905</v>
+        <v>0.852934426499938</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>415</v>
+        <v>8</v>
       </c>
       <c r="B343">
-        <v>0.88655992347745405</v>
+        <v>-0.70496184333756895</v>
       </c>
       <c r="C343">
-        <v>-0.36918869515920899</v>
+        <v>0.64377478052599302</v>
       </c>
       <c r="D343">
-        <v>-0.54748841004835702</v>
+        <v>0.948474793136867</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="B344">
-        <v>0.72739178066539301</v>
+        <v>-0.70605671937198</v>
       </c>
       <c r="C344">
-        <v>-0.30216068972827897</v>
+        <v>0.81696879188125304</v>
       </c>
       <c r="D344">
-        <v>-0.55597321232935504</v>
+        <v>0.83811016412001504</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>403</v>
+        <v>213</v>
       </c>
       <c r="B345">
-        <v>0.88735785183194005</v>
+        <v>-0.70635078095418902</v>
       </c>
       <c r="C345">
-        <v>-0.38569776405136302</v>
+        <v>0.71133958018826404</v>
       </c>
       <c r="D345">
-        <v>-0.56604978675317796</v>
+        <v>0.67706457543211296</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>410</v>
+        <v>50</v>
       </c>
       <c r="B346">
-        <v>0.89817111778544001</v>
+        <v>-0.70793384459740105</v>
       </c>
       <c r="C346">
-        <v>-0.41303502810819398</v>
+        <v>0.79961397100633502</v>
       </c>
       <c r="D346">
-        <v>-0.57727249451108598</v>
+        <v>0.800695216348149</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B347">
-        <v>0.61855842709169195</v>
+        <v>-0.70884520951697705</v>
       </c>
       <c r="C347">
-        <v>-0.54370811241278505</v>
+        <v>0.53689925625222201</v>
       </c>
       <c r="D347">
-        <v>-0.58681486910829495</v>
+        <v>0.91488003087276804</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>399</v>
+        <v>243</v>
       </c>
       <c r="B348">
-        <v>0.86571113375600794</v>
+        <v>-0.70988938264048496</v>
       </c>
       <c r="C348">
-        <v>-0.26554789321792799</v>
+        <v>0.66194336515156305</v>
       </c>
       <c r="D348">
-        <v>-0.59206750222189397</v>
+        <v>0.66007501267826096</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>391</v>
+        <v>153</v>
       </c>
       <c r="B349">
-        <v>0.88369877526346596</v>
+        <v>-0.710297526400409</v>
       </c>
       <c r="C349">
-        <v>-0.36352537128937701</v>
+        <v>0.56721068591684498</v>
       </c>
       <c r="D349">
-        <v>-0.59980002020277501</v>
+        <v>0.77871202996817102</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="B350">
-        <v>0.59645274443331597</v>
+        <v>-0.71064294738360201</v>
       </c>
       <c r="C350">
-        <v>-0.52971586173295804</v>
+        <v>0.65179870673129903</v>
       </c>
       <c r="D350">
-        <v>-0.60100237058333195</v>
+        <v>0.837574295579393</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>376</v>
+        <v>7</v>
       </c>
       <c r="B351">
-        <v>0.81891862257600501</v>
+        <v>-0.71081278253458102</v>
       </c>
       <c r="C351">
-        <v>-0.46927730753027602</v>
+        <v>0.61649202725406604</v>
       </c>
       <c r="D351">
-        <v>-0.602251210853327</v>
+        <v>0.91622571315773205</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>402</v>
+        <v>119</v>
       </c>
       <c r="B352">
-        <v>0.91892676913669002</v>
+        <v>-0.710903915147167</v>
       </c>
       <c r="C352">
-        <v>-0.43031748329917702</v>
+        <v>0.53109720766074697</v>
       </c>
       <c r="D352">
-        <v>-0.60430695734588702</v>
+        <v>0.83757976474125595</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="B353">
-        <v>0.89188991464259704</v>
+        <v>-0.71115874492414499</v>
       </c>
       <c r="C353">
-        <v>-0.29351541068356901</v>
+        <v>0.484021832449686</v>
       </c>
       <c r="D353">
-        <v>-0.61325351760745805</v>
+        <v>0.908028844339687</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>385</v>
+        <v>101</v>
       </c>
       <c r="B354">
-        <v>0.89463769321643205</v>
+        <v>-0.71155465030668597</v>
       </c>
       <c r="C354">
-        <v>-0.38082562766723799</v>
+        <v>0.68114971689001202</v>
       </c>
       <c r="D354">
-        <v>-0.61347609034170703</v>
+        <v>0.80908412655015405</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="B355">
-        <v>0.88170405970314902</v>
+        <v>-0.71493370741276396</v>
       </c>
       <c r="C355">
-        <v>-0.422043689545334</v>
+        <v>0.439691073478084</v>
       </c>
       <c r="D355">
-        <v>-0.62139798972955995</v>
+        <v>0.82887867417069905</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>409</v>
+        <v>73</v>
       </c>
       <c r="B356">
-        <v>0.80428364881124703</v>
+        <v>-0.71504153124222303</v>
       </c>
       <c r="C356">
-        <v>-0.168965045018278</v>
+        <v>0.60293899544274798</v>
       </c>
       <c r="D356">
-        <v>-0.62614412524854501</v>
+        <v>0.78254829789759806</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>384</v>
+        <v>53</v>
       </c>
       <c r="B357">
-        <v>0.93605653232875896</v>
+        <v>-0.715084663630285</v>
       </c>
       <c r="C357">
-        <v>-0.44281273475129301</v>
+        <v>0.57986292427381203</v>
       </c>
       <c r="D357">
-        <v>-0.62740203102868497</v>
+        <v>0.889594786640312</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>387</v>
+        <v>202</v>
       </c>
       <c r="B358">
-        <v>0.87872042808719497</v>
+        <v>-0.71535797148031199</v>
       </c>
       <c r="C358">
-        <v>-0.44500169262371098</v>
+        <v>0.70907435680498598</v>
       </c>
       <c r="D358">
-        <v>-0.63435990489223704</v>
+        <v>0.65232659706167595</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>327</v>
+        <v>65</v>
       </c>
       <c r="B359">
-        <v>0.77741198627142705</v>
+        <v>-0.71536121947211395</v>
       </c>
       <c r="C359">
-        <v>-0.38542692421905</v>
+        <v>0.54953552094484404</v>
       </c>
       <c r="D359">
-        <v>-0.63816231462619899</v>
+        <v>0.93440266232472402</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>406</v>
+        <v>37</v>
       </c>
       <c r="B360">
-        <v>0.89104376261286899</v>
+        <v>-0.71680844251652698</v>
       </c>
       <c r="C360">
-        <v>-0.44154150401349401</v>
+        <v>0.58736555496375198</v>
       </c>
       <c r="D360">
-        <v>-0.63819667917388201</v>
+        <v>0.87070010031459999</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>388</v>
+        <v>97</v>
       </c>
       <c r="B361">
-        <v>0.93080421113485501</v>
+        <v>-0.71698357772967602</v>
       </c>
       <c r="C361">
-        <v>-0.41481739602842699</v>
+        <v>0.77636803485796502</v>
       </c>
       <c r="D361">
-        <v>-0.640856193358045</v>
+        <v>0.73973840396378299</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B362">
-        <v>0.84816903043339997</v>
+        <v>-0.71786067479776705</v>
       </c>
       <c r="C362">
-        <v>-0.49586319428027098</v>
+        <v>0.34234437830257303</v>
       </c>
       <c r="D362">
-        <v>-0.64889451237306195</v>
+        <v>0.84113115958379703</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>412</v>
+        <v>59</v>
       </c>
       <c r="B363">
-        <v>0.84626661897782096</v>
+        <v>-0.71873242628052603</v>
       </c>
       <c r="C363">
-        <v>-0.26818212440301498</v>
+        <v>0.73656228557570302</v>
       </c>
       <c r="D363">
-        <v>-0.65537081902086503</v>
+        <v>0.80791447701290697</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="B364">
-        <v>0.74835940155256497</v>
+        <v>-0.72004699731725197</v>
       </c>
       <c r="C364">
-        <v>-0.23321817816413701</v>
+        <v>0.42449756889816698</v>
       </c>
       <c r="D364">
-        <v>-0.658149018850262</v>
+        <v>0.90208827702627203</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="B365">
-        <v>0.45681412359277601</v>
+        <v>-0.72281571820198298</v>
       </c>
       <c r="C365">
-        <v>-0.69632892375719802</v>
+        <v>0.50969215275978097</v>
       </c>
       <c r="D365">
-        <v>-0.66086208453991102</v>
+        <v>0.82610515398669604</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="B366">
-        <v>0.94502221426143895</v>
+        <v>-0.72348035712686698</v>
       </c>
       <c r="C366">
-        <v>-0.453622209171202</v>
+        <v>0.57314971441041795</v>
       </c>
       <c r="D366">
-        <v>-0.66828257911086797</v>
+        <v>0.85729629269713403</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B367">
-        <v>0.86986703233928298</v>
+        <v>-0.72372774125953898</v>
       </c>
       <c r="C367">
-        <v>-0.50837959755682305</v>
+        <v>0.39477068625224998</v>
       </c>
       <c r="D367">
-        <v>-0.67081456363436698</v>
+        <v>0.64664890313093504</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="B368">
-        <v>0.90385849811113095</v>
+        <v>-0.72627032841716699</v>
       </c>
       <c r="C368">
-        <v>-0.42547946293165001</v>
+        <v>0.47539446695585502</v>
       </c>
       <c r="D368">
-        <v>-0.67901528327674499</v>
+        <v>0.83556871773452102</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="B369">
-        <v>0.93435935111110002</v>
+        <v>-0.72908285580333398</v>
       </c>
       <c r="C369">
-        <v>-0.405394717639254</v>
+        <v>0.68650852857968103</v>
       </c>
       <c r="D369">
-        <v>-0.68464520490660796</v>
+        <v>0.86099396440816001</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="B370">
-        <v>0.70652255864417002</v>
+        <v>-0.73108040555331999</v>
       </c>
       <c r="C370">
-        <v>-0.60818582923935205</v>
+        <v>0.69027563496773003</v>
       </c>
       <c r="D370">
-        <v>-0.685662683154177</v>
+        <v>0.83181829921305395</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="B371">
-        <v>0.62905509102076196</v>
+        <v>-0.73176500724367699</v>
       </c>
       <c r="C371">
-        <v>-0.66851598884510599</v>
+        <v>0.69850818539821002</v>
       </c>
       <c r="D371">
-        <v>-0.68609147930495396</v>
+        <v>0.68002864622974002</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="B372">
-        <v>0.85095842859929205</v>
+        <v>-0.73420132670125304</v>
       </c>
       <c r="C372">
-        <v>-0.62074467147759604</v>
+        <v>0.73069686056895899</v>
       </c>
       <c r="D372">
-        <v>-0.688578185326292</v>
+        <v>0.67217883037821802</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>404</v>
+        <v>286</v>
       </c>
       <c r="B373">
-        <v>0.91308194203942605</v>
+        <v>-0.73502951598050004</v>
       </c>
       <c r="C373">
-        <v>-0.33786896576116399</v>
+        <v>0.40747791196157201</v>
       </c>
       <c r="D373">
-        <v>-0.694585809912177</v>
+        <v>0.82486519361737998</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="B374">
-        <v>0.883914729397411</v>
+        <v>-0.73543957671433302</v>
       </c>
       <c r="C374">
-        <v>-0.56034987288988702</v>
+        <v>0.48675223811421597</v>
       </c>
       <c r="D374">
-        <v>-0.69906203337022998</v>
+        <v>0.89964095153013102</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="B375">
-        <v>0.83817128566689703</v>
+        <v>-0.73773243893438201</v>
       </c>
       <c r="C375">
-        <v>-0.4197523771087</v>
+        <v>0.45018710721324201</v>
       </c>
       <c r="D375">
-        <v>-0.70708681385007999</v>
+        <v>0.87931963701819005</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B376">
-        <v>0.81629264571715399</v>
+        <v>-0.73852701833229895</v>
       </c>
       <c r="C376">
-        <v>-0.407998243258271</v>
+        <v>0.68091753381576603</v>
       </c>
       <c r="D376">
-        <v>-0.70839491049427095</v>
+        <v>0.69004434433717898</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="B377">
-        <v>0.82868268946420898</v>
+        <v>-0.73926047096765701</v>
       </c>
       <c r="C377">
-        <v>-0.46856152831939202</v>
+        <v>0.511682044025217</v>
       </c>
       <c r="D377">
-        <v>-0.71190094553998495</v>
+        <v>0.93490745018211596</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="B378">
-        <v>0.95689173356720603</v>
+        <v>-0.74049837156156895</v>
       </c>
       <c r="C378">
-        <v>-0.49576835255023</v>
+        <v>0.73388258713877597</v>
       </c>
       <c r="D378">
-        <v>-0.71256577932165699</v>
+        <v>0.81007389986894296</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>396</v>
+        <v>204</v>
       </c>
       <c r="B379">
-        <v>0.902132776497933</v>
+        <v>-0.74057692669034703</v>
       </c>
       <c r="C379">
-        <v>-0.34233601179113998</v>
+        <v>0.47216776056679299</v>
       </c>
       <c r="D379">
-        <v>-0.71422615813515</v>
+        <v>0.88762562190054595</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="B380">
-        <v>0.85648853381891299</v>
+        <v>-0.74145279526194996</v>
       </c>
       <c r="C380">
-        <v>-0.41689623469744103</v>
+        <v>0.54985719574143299</v>
       </c>
       <c r="D380">
-        <v>-0.71495011472445202</v>
+        <v>0.89818348046037699</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="B381">
-        <v>0.96341587133941897</v>
+        <v>-0.74172904340554802</v>
       </c>
       <c r="C381">
-        <v>-0.50350977481260195</v>
+        <v>0.64106686842178695</v>
       </c>
       <c r="D381">
-        <v>-0.71800116973152295</v>
+        <v>0.66356060729786204</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="B382">
-        <v>0.81442435659700696</v>
+        <v>-0.74177998681161506</v>
       </c>
       <c r="C382">
-        <v>-0.43582530651578599</v>
+        <v>0.709411114365879</v>
       </c>
       <c r="D382">
-        <v>-0.71819041852097698</v>
+        <v>0.70487522868128105</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="B383">
-        <v>0.926565680481231</v>
+        <v>-0.74188017106556503</v>
       </c>
       <c r="C383">
-        <v>-0.49752290982053499</v>
+        <v>0.47719731672512899</v>
       </c>
       <c r="D383">
-        <v>-0.71865936667327102</v>
+        <v>0.88806031557680598</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>356</v>
+        <v>51</v>
       </c>
       <c r="B384">
-        <v>0.95901491962232299</v>
+        <v>-0.74228965203175301</v>
       </c>
       <c r="C384">
-        <v>-0.47104096835268999</v>
+        <v>0.81764731640986099</v>
       </c>
       <c r="D384">
-        <v>-0.722424574624144</v>
+        <v>0.78377988268147503</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="B385">
-        <v>0.869627262904349</v>
+        <v>-0.74309112431467905</v>
       </c>
       <c r="C385">
-        <v>-0.414185514039211</v>
+        <v>0.62436467188043399</v>
       </c>
       <c r="D385">
-        <v>-0.724128158237067</v>
+        <v>0.83280061767709501</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>358</v>
+        <v>63</v>
       </c>
       <c r="B386">
-        <v>0.96831424038477898</v>
+        <v>-0.74327957006213496</v>
       </c>
       <c r="C386">
-        <v>-0.49260749531514297</v>
+        <v>0.62884806254044301</v>
       </c>
       <c r="D386">
-        <v>-0.72527436330296602</v>
+        <v>0.87378998220460602</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B387">
-        <v>0.678384918035982</v>
+        <v>-0.74409704780149699</v>
       </c>
       <c r="C387">
-        <v>-0.65249707594272699</v>
+        <v>0.73135395454036001</v>
       </c>
       <c r="D387">
-        <v>-0.72680603190928905</v>
+        <v>0.851495836963716</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="B388">
-        <v>0.91124857049403896</v>
+        <v>-0.74625504507210305</v>
       </c>
       <c r="C388">
-        <v>-0.37102287848161702</v>
+        <v>0.72812220575644104</v>
       </c>
       <c r="D388">
-        <v>-0.72794737018116895</v>
+        <v>0.77972244615993702</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="B389">
-        <v>0.83180821745334799</v>
+        <v>-0.74716515484375901</v>
       </c>
       <c r="C389">
-        <v>-0.42819194627608698</v>
+        <v>0.72146450889985003</v>
       </c>
       <c r="D389">
-        <v>-0.73517521377752304</v>
+        <v>0.87802002320857298</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="B390">
-        <v>0.84008528012183403</v>
+        <v>-0.74827873583388904</v>
       </c>
       <c r="C390">
-        <v>-0.418272733020702</v>
+        <v>0.65130687413016097</v>
       </c>
       <c r="D390">
-        <v>-0.73559623930504203</v>
+        <v>0.77475078839625999</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="B391">
-        <v>0.85122932479256597</v>
+        <v>-0.751292132110702</v>
       </c>
       <c r="C391">
-        <v>-0.44171441392157301</v>
+        <v>0.50066371646728103</v>
       </c>
       <c r="D391">
-        <v>-0.73771279086882302</v>
+        <v>0.92123101937118801</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B392">
-        <v>0.83900332011539203</v>
+        <v>-0.75171159911234797</v>
       </c>
       <c r="C392">
-        <v>-0.49935402484817598</v>
+        <v>0.392130353644639</v>
       </c>
       <c r="D392">
-        <v>-0.74463867318505395</v>
+        <v>0.84428018807066796</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="B393">
-        <v>0.84557826214671405</v>
+        <v>-0.75195715837075705</v>
       </c>
       <c r="C393">
-        <v>-0.54867068059877699</v>
+        <v>0.53371385080268896</v>
       </c>
       <c r="D393">
-        <v>-0.74539429664423895</v>
+        <v>0.70384083400144704</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="B394">
-        <v>0.83872439370351004</v>
+        <v>-0.75306602238244602</v>
       </c>
       <c r="C394">
-        <v>-0.55104657418515901</v>
+        <v>0.55076995696172804</v>
       </c>
       <c r="D394">
-        <v>-0.74759862237753405</v>
+        <v>0.875275722598848</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="B395">
-        <v>0.83669562015295795</v>
+        <v>-0.75377967153953596</v>
       </c>
       <c r="C395">
-        <v>-0.74496675435694704</v>
+        <v>0.69574753935290501</v>
       </c>
       <c r="D395">
-        <v>-0.75005233039922203</v>
+        <v>0.91181169799815698</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="B396">
-        <v>0.94690846417243701</v>
+        <v>-0.75543809432648901</v>
       </c>
       <c r="C396">
-        <v>-0.492846540285236</v>
+        <v>0.68598268839167198</v>
       </c>
       <c r="D396">
-        <v>-0.75076776207042295</v>
+        <v>0.82772749136230395</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>345</v>
+        <v>242</v>
       </c>
       <c r="B397">
-        <v>0.88503698061677405</v>
+        <v>-0.755874483717067</v>
       </c>
       <c r="C397">
-        <v>-0.47404865785738898</v>
+        <v>0.43261467290538302</v>
       </c>
       <c r="D397">
-        <v>-0.75180320159326097</v>
+        <v>0.81808321834285203</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B398">
-        <v>0.946167817897274</v>
+        <v>-0.76272024281270501</v>
       </c>
       <c r="C398">
-        <v>-0.58789274211321896</v>
+        <v>0.47262874610877897</v>
       </c>
       <c r="D398">
-        <v>-0.75232031603123695</v>
+        <v>0.82002372634847198</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="B399">
-        <v>0.84064668688200705</v>
+        <v>-0.76383064961185498</v>
       </c>
       <c r="C399">
-        <v>-0.51954377361531801</v>
+        <v>0.48337797409231098</v>
       </c>
       <c r="D399">
-        <v>-0.75247893686517098</v>
+        <v>0.87811731741865895</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B400">
-        <v>0.78253157376273696</v>
+        <v>-0.76434529157132403</v>
       </c>
       <c r="C400">
-        <v>-0.70268660493987301</v>
+        <v>0.68543431141348798</v>
       </c>
       <c r="D400">
-        <v>-0.75283981219054896</v>
+        <v>0.80776439288264601</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>348</v>
+        <v>195</v>
       </c>
       <c r="B401">
-        <v>0.87121548070527</v>
+        <v>-0.765343473601656</v>
       </c>
       <c r="C401">
-        <v>-0.34736537953316898</v>
+        <v>0.45001109026171998</v>
       </c>
       <c r="D401">
-        <v>-0.75351348016871</v>
+        <v>0.89077631208654195</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="B402">
-        <v>0.95224994891360004</v>
+        <v>-0.76704213063268201</v>
       </c>
       <c r="C402">
-        <v>-0.514025299913762</v>
+        <v>0.58401995296936804</v>
       </c>
       <c r="D402">
-        <v>-0.75366147036570896</v>
+        <v>0.67372136821465201</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="B403">
-        <v>0.95159343547478004</v>
+        <v>-0.76714855967415596</v>
       </c>
       <c r="C403">
-        <v>-0.52006398865845005</v>
+        <v>0.62364016294199798</v>
       </c>
       <c r="D403">
-        <v>-0.75599462034803799</v>
+        <v>0.77540017019229202</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>318</v>
+        <v>17</v>
       </c>
       <c r="B404">
-        <v>0.95604759068866796</v>
+        <v>-0.77100842113438395</v>
       </c>
       <c r="C404">
-        <v>-0.50265367292142904</v>
+        <v>0.62774843703722205</v>
       </c>
       <c r="D404">
-        <v>-0.75703772750201903</v>
+        <v>0.943594490993521</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="B405">
-        <v>0.87631614643787703</v>
+        <v>-0.77195016078029799</v>
       </c>
       <c r="C405">
-        <v>-0.59015066410029504</v>
+        <v>0.48979937697291398</v>
       </c>
       <c r="D405">
-        <v>-0.75797992845856799</v>
+        <v>0.83690472385285997</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="B406">
-        <v>0.86891794833305103</v>
+        <v>-0.77368595618119196</v>
       </c>
       <c r="C406">
-        <v>-0.63956733713097602</v>
+        <v>0.70976225427629702</v>
       </c>
       <c r="D406">
-        <v>-0.76073897170895</v>
+        <v>0.71568631930486604</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="B407">
-        <v>0.87275201531726099</v>
+        <v>-0.77560538948841795</v>
       </c>
       <c r="C407">
-        <v>-0.51073830517167196</v>
+        <v>0.72019089333938402</v>
       </c>
       <c r="D407">
-        <v>-0.76620027902643095</v>
+        <v>0.81402784431963904</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="B408">
-        <v>0.92573388155393399</v>
+        <v>-0.77802750924914099</v>
       </c>
       <c r="C408">
-        <v>-0.42600768113918402</v>
+        <v>0.807283390280505</v>
       </c>
       <c r="D408">
-        <v>-0.76855907344569696</v>
+        <v>0.83336546962876001</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="B409">
-        <v>0.926828041437191</v>
+        <v>-0.77870140254297404</v>
       </c>
       <c r="C409">
-        <v>-0.585634206179935</v>
+        <v>0.59648811553604297</v>
       </c>
       <c r="D409">
-        <v>-0.77285181890707499</v>
+        <v>0.83889558881766102</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="B410">
-        <v>0.66588494367231499</v>
+        <v>-0.77918909484417598</v>
       </c>
       <c r="C410">
-        <v>-0.63808039951425</v>
+        <v>0.48148143345170502</v>
       </c>
       <c r="D410">
-        <v>-0.77461810370634199</v>
+        <v>0.86755677924893604</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="B411">
-        <v>0.93265432596240805</v>
+        <v>-0.78172958550904603</v>
       </c>
       <c r="C411">
-        <v>-0.51428329021841901</v>
+        <v>0.449940342137852</v>
       </c>
       <c r="D411">
-        <v>-0.77826266375691</v>
+        <v>0.85517112173722598</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="B412">
-        <v>0.91788761669178898</v>
+        <v>-0.78302634895681</v>
       </c>
       <c r="C412">
-        <v>-0.55460380027483003</v>
+        <v>0.75407216182553505</v>
       </c>
       <c r="D412">
-        <v>-0.77866026201357597</v>
+        <v>0.88055413988412301</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B413">
-        <v>0.83707141502232196</v>
+        <v>-0.78364874325360501</v>
       </c>
       <c r="C413">
-        <v>-0.50493793662616304</v>
+        <v>0.46960604566492098</v>
       </c>
       <c r="D413">
-        <v>-0.78232554594112302</v>
+        <v>0.88824780163626305</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="B414">
-        <v>0.85341200992302901</v>
+        <v>-0.78410230440027395</v>
       </c>
       <c r="C414">
-        <v>-0.45334713473564597</v>
+        <v>0.58085779531508397</v>
       </c>
       <c r="D414">
-        <v>-0.78759025430420304</v>
+        <v>0.87220377216156697</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="B415">
-        <v>0.89473218069624805</v>
+        <v>-0.78515190683922398</v>
       </c>
       <c r="C415">
-        <v>-0.53569732512476997</v>
+        <v>0.75137688141414505</v>
       </c>
       <c r="D415">
-        <v>-0.79209270243595897</v>
+        <v>0.87902026362417096</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="B416">
-        <v>0.91292302884332999</v>
+        <v>-0.78651779044468995</v>
       </c>
       <c r="C416">
-        <v>-0.55043943849189203</v>
+        <v>0.519831215735993</v>
       </c>
       <c r="D416">
-        <v>-0.79431841963948602</v>
+        <v>0.87810941824065203</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="B417">
-        <v>0.91916527485595101</v>
+        <v>-0.78676320262149402</v>
       </c>
       <c r="C417">
-        <v>-0.559354048023049</v>
+        <v>0.64640815323516598</v>
       </c>
       <c r="D417">
-        <v>-0.79521685871853898</v>
+        <v>0.82377226374576296</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="B418">
-        <v>0.84690543207868596</v>
+        <v>-0.78686711808888199</v>
       </c>
       <c r="C418">
-        <v>-0.47293270480995803</v>
+        <v>0.79528240441351405</v>
       </c>
       <c r="D418">
-        <v>-0.79859321144208095</v>
+        <v>0.82044752203277005</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B419">
-        <v>0.83233605330161597</v>
+        <v>-0.788935328563517</v>
       </c>
       <c r="C419">
-        <v>-0.52814448010081305</v>
+        <v>0.52158640727218397</v>
       </c>
       <c r="D419">
-        <v>-0.80124355853574603</v>
+        <v>0.81399482495444697</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="B420">
-        <v>0.86370611541539499</v>
+        <v>-0.79172727407439503</v>
       </c>
       <c r="C420">
-        <v>-0.52989285622020099</v>
+        <v>0.61251227694680199</v>
       </c>
       <c r="D420">
-        <v>-0.80657480915656898</v>
+        <v>0.75294533551423004</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="B421">
-        <v>0.91532354031046104</v>
+        <v>-0.79272223035004596</v>
       </c>
       <c r="C421">
-        <v>-0.52497234504315604</v>
+        <v>0.56114150079893899</v>
       </c>
       <c r="D421">
-        <v>-0.81189363414438798</v>
+        <v>0.92328686873162102</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="B422">
-        <v>0.86187281186151599</v>
+        <v>-0.79278644428817002</v>
       </c>
       <c r="C422">
-        <v>-0.50334162330542698</v>
+        <v>0.73376830418024797</v>
       </c>
       <c r="D422">
-        <v>-0.81575867315849804</v>
+        <v>0.89605962982379495</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="B423">
-        <v>0.91601965640459804</v>
+        <v>-0.79387402656196104</v>
       </c>
       <c r="C423">
-        <v>-0.52409797846917305</v>
+        <v>0.658230143888479</v>
       </c>
       <c r="D423">
-        <v>-0.81911121045840296</v>
+        <v>0.84773985472793001</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B424">
-        <v>0.95596032333342296</v>
+        <v>-0.79891871799449699</v>
       </c>
       <c r="C424">
-        <v>-0.55521497635818595</v>
+        <v>0.55533728950039596</v>
       </c>
       <c r="D424">
-        <v>-0.82079072136369102</v>
+        <v>0.730883201237567</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="B425">
-        <v>0.94487709897788896</v>
+        <v>-0.79939977834194298</v>
       </c>
       <c r="C425">
-        <v>-0.54720090409579203</v>
+        <v>0.47193365272340598</v>
       </c>
       <c r="D425">
-        <v>-0.82086349610828901</v>
+        <v>0.87785332168153296</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B426">
-        <v>0.75582962568935996</v>
+        <v>-0.80188896557309797</v>
       </c>
       <c r="C426">
-        <v>-0.52441452506553698</v>
+        <v>0.60956925417142105</v>
       </c>
       <c r="D426">
-        <v>-0.82127740623199896</v>
+        <v>0.82347696460053599</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="B427">
-        <v>0.89855940264410805</v>
+        <v>-0.804076941795556</v>
       </c>
       <c r="C427">
-        <v>-0.54188230867308895</v>
+        <v>0.42716940337898601</v>
       </c>
       <c r="D427">
-        <v>-0.82818529401260799</v>
+        <v>0.84565383799476701</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="B428">
-        <v>0.94973663654815499</v>
+        <v>-0.80701072531372997</v>
       </c>
       <c r="C428">
-        <v>-0.58045784007896695</v>
+        <v>0.72133606511193304</v>
       </c>
       <c r="D428">
-        <v>-0.83021514267494501</v>
+        <v>0.82429797941511396</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B429">
-        <v>0.83311963226525598</v>
+        <v>-0.80950883669526597</v>
       </c>
       <c r="C429">
-        <v>-0.66869384518270902</v>
+        <v>0.46181565991432599</v>
       </c>
       <c r="D429">
-        <v>-0.83315661885958403</v>
+        <v>0.88346212898993703</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="B430">
-        <v>0.89367656259837203</v>
+        <v>-0.81940216083756501</v>
       </c>
       <c r="C430">
-        <v>-0.47734589565651597</v>
+        <v>0.693911700825115</v>
       </c>
       <c r="D430">
-        <v>-0.83568817702557596</v>
+        <v>0.82810550402944905</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="B431">
-        <v>0.8791448031322</v>
+        <v>-0.82646562747494601</v>
       </c>
       <c r="C431">
-        <v>-0.59500970957014199</v>
+        <v>0.37694347902137798</v>
       </c>
       <c r="D431">
-        <v>-0.837440161028148</v>
+        <v>0.83575488452936997</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="B432">
-        <v>0.86741952139604805</v>
+        <v>-0.82813225545857605</v>
       </c>
       <c r="C432">
-        <v>-0.55174338529233602</v>
+        <v>0.53852801816181906</v>
       </c>
       <c r="D432">
-        <v>-0.83988260734944598</v>
+        <v>0.87041301668630799</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="B433">
-        <v>0.94521914367448401</v>
+        <v>-0.82911774708979602</v>
       </c>
       <c r="C433">
-        <v>-0.58059720979776896</v>
+        <v>0.71826534938133102</v>
       </c>
       <c r="D433">
-        <v>-0.84575504251077005</v>
+        <v>0.86507662103304594</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B434">
-        <v>0.77396150977073097</v>
+        <v>-0.83149956228560695</v>
       </c>
       <c r="C434">
-        <v>-0.72650975909204096</v>
+        <v>0.77018130458484402</v>
       </c>
       <c r="D434">
-        <v>-0.84664663800460804</v>
+        <v>0.85443205511925902</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="B435">
-        <v>0.91071604017471597</v>
+        <v>-0.84525991785942201</v>
       </c>
       <c r="C435">
-        <v>-0.66907821450562199</v>
+        <v>0.72608682847654504</v>
       </c>
       <c r="D435">
-        <v>-0.85982703477361699</v>
+        <v>0.908875457103406</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="B436">
-        <v>0.90604885896287901</v>
+        <v>-0.84758014796792802</v>
       </c>
       <c r="C436">
-        <v>-0.52735051684744305</v>
+        <v>0.63084688039446102</v>
       </c>
       <c r="D436">
-        <v>-0.86144432574007701</v>
+        <v>0.92702237384194497</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D436">
-    <sortCondition descending="1" ref="D1:D436"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D437">
+    <sortCondition descending="1" ref="B1:B437"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
